--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
@@ -496,28 +496,28 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.0125</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.0125</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.0125</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0.666666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0.666666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0.666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.8601567436367</v>
+        <v>0.7346134188981</v>
       </c>
       <c r="B2" t="n">
-        <v>6.13882469360792</v>
+        <v>2.98162182561597</v>
       </c>
       <c r="C2" t="n">
-        <v>31.8365653256614</v>
+        <v>17.6449991618842</v>
       </c>
       <c r="D2" t="n">
-        <v>48.6415180014225</v>
+        <v>28.5495875778358</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4317464530182</v>
+        <v>12.9042786039973</v>
       </c>
       <c r="F2" t="n">
-        <v>16.0364711191844</v>
+        <v>9.78090702361146</v>
       </c>
       <c r="G2" t="n">
-        <v>13.7189971935867</v>
+        <v>8.42826276723097</v>
       </c>
       <c r="H2" t="n">
-        <v>12.4265609439702</v>
+        <v>7.66821230959945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.20957179886056</v>
+        <v>1.23156596108195</v>
       </c>
       <c r="B3" t="n">
-        <v>7.210870719111</v>
+        <v>4.4688373244012</v>
       </c>
       <c r="C3" t="n">
-        <v>37.2068652665171</v>
+        <v>24.9066692207434</v>
       </c>
       <c r="D3" t="n">
-        <v>56.5461347620005</v>
+        <v>39.1795553804654</v>
       </c>
       <c r="E3" t="n">
-        <v>24.8088223887485</v>
+        <v>17.4500755977125</v>
       </c>
       <c r="F3" t="n">
-        <v>18.5085905865629</v>
+        <v>13.1150191708518</v>
       </c>
       <c r="G3" t="n">
-        <v>15.8015312768414</v>
+        <v>11.2420000718181</v>
       </c>
       <c r="H3" t="n">
-        <v>14.2919920977444</v>
+        <v>10.1924017800468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.71728958394348</v>
+        <v>2.02816327138069</v>
       </c>
       <c r="B4" t="n">
-        <v>8.67901992561903</v>
+        <v>6.73928588375033</v>
       </c>
       <c r="C4" t="n">
-        <v>44.6777774213058</v>
+        <v>36.0365988272126</v>
       </c>
       <c r="D4" t="n">
-        <v>67.7172556911763</v>
+        <v>55.5791677225262</v>
       </c>
       <c r="E4" t="n">
-        <v>29.629939464223</v>
+        <v>24.4985723228579</v>
       </c>
       <c r="F4" t="n">
-        <v>22.0617116116501</v>
+        <v>18.3044395526504</v>
       </c>
       <c r="G4" t="n">
-        <v>18.8090476758644</v>
+        <v>15.6342014922241</v>
       </c>
       <c r="H4" t="n">
-        <v>16.9956552683707</v>
+        <v>14.1416654964063</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.10220992358158</v>
+        <v>0.425427569678962</v>
       </c>
       <c r="B5" t="n">
-        <v>6.57655880427684</v>
+        <v>1.72161303011894</v>
       </c>
       <c r="C5" t="n">
-        <v>34.5898484067465</v>
+        <v>13.0405656595326</v>
       </c>
       <c r="D5" t="n">
-        <v>53.112959202764</v>
+        <v>22.8989947688834</v>
       </c>
       <c r="E5" t="n">
-        <v>23.407458814275</v>
+        <v>10.6411108385292</v>
       </c>
       <c r="F5" t="n">
-        <v>17.4996114785529</v>
+        <v>8.15366079172388</v>
       </c>
       <c r="G5" t="n">
-        <v>14.9564452381443</v>
+        <v>7.059881099255</v>
       </c>
       <c r="H5" t="n">
-        <v>13.5365487293814</v>
+        <v>6.43830713341187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.38773867535724</v>
+        <v>0.998539908212652</v>
       </c>
       <c r="B6" t="n">
-        <v>7.31450022000959</v>
+        <v>3.31151146127986</v>
       </c>
       <c r="C6" t="n">
-        <v>38.3181551893796</v>
+        <v>20.5699118149513</v>
       </c>
       <c r="D6" t="n">
-        <v>58.6140559736641</v>
+        <v>33.7784336888367</v>
       </c>
       <c r="E6" t="n">
-        <v>25.7571991797111</v>
+        <v>15.2731746553969</v>
       </c>
       <c r="F6" t="n">
-        <v>19.2228350276867</v>
+        <v>11.5502236415573</v>
       </c>
       <c r="G6" t="n">
-        <v>16.4124461786452</v>
+        <v>9.9304199195208</v>
       </c>
       <c r="H6" t="n">
-        <v>14.844824016113</v>
+        <v>9.01833155340308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.03411331788912</v>
+        <v>2.02824624754217</v>
       </c>
       <c r="B7" t="n">
-        <v>8.96148957913342</v>
+        <v>6.07320306119795</v>
       </c>
       <c r="C7" t="n">
-        <v>47.0928492872657</v>
+        <v>34.3471910564559</v>
       </c>
       <c r="D7" t="n">
-        <v>72.1625949085668</v>
+        <v>54.379249403271</v>
       </c>
       <c r="E7" t="n">
-        <v>31.7182487722137</v>
+        <v>24.2185092158841</v>
       </c>
       <c r="F7" t="n">
-        <v>23.6711568303454</v>
+        <v>18.1840610278701</v>
       </c>
       <c r="G7" t="n">
-        <v>20.2090518338238</v>
+        <v>15.5737665882339</v>
       </c>
       <c r="H7" t="n">
-        <v>18.2771525878172</v>
+        <v>14.1107316340902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.39942304682299</v>
+        <v>-2.10378663266747</v>
       </c>
       <c r="B8" t="n">
-        <v>5.37741641428476</v>
+        <v>-4.54488991387849</v>
       </c>
       <c r="C8" t="n">
-        <v>26.8909488836227</v>
+        <v>-17.5360648880701</v>
       </c>
       <c r="D8" t="n">
-        <v>40.5387760164057</v>
+        <v>-22.032521854388</v>
       </c>
       <c r="E8" t="n">
-        <v>17.8513002135856</v>
+        <v>-8.66958050972337</v>
       </c>
       <c r="F8" t="n">
-        <v>13.3896682340867</v>
+        <v>-6.06405778897893</v>
       </c>
       <c r="G8" t="n">
-        <v>11.4847439882174</v>
+        <v>-4.97141390090707</v>
       </c>
       <c r="H8" t="n">
-        <v>10.4256954567086</v>
+        <v>-4.37717711826966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.88138179557812</v>
+        <v>-1.59386825747064</v>
       </c>
       <c r="B9" t="n">
-        <v>7.34126269572216</v>
+        <v>-2.35085873062563</v>
       </c>
       <c r="C9" t="n">
-        <v>36.4532001240643</v>
+        <v>-7.17348873338692</v>
       </c>
       <c r="D9" t="n">
-        <v>54.4617545754184</v>
+        <v>-7.09907893447958</v>
       </c>
       <c r="E9" t="n">
-        <v>23.7933415265205</v>
+        <v>-2.30135572249388</v>
       </c>
       <c r="F9" t="n">
-        <v>17.7349280382237</v>
+        <v>-1.40158749601067</v>
       </c>
       <c r="G9" t="n">
-        <v>15.1385304595675</v>
+        <v>-1.04586668075581</v>
       </c>
       <c r="H9" t="n">
-        <v>13.6918184689669</v>
+        <v>-0.864520348342138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.94091791943946</v>
+        <v>-0.226593919317722</v>
       </c>
       <c r="B10" t="n">
-        <v>11.701443207663</v>
+        <v>3.00207802582461</v>
       </c>
       <c r="C10" t="n">
-        <v>57.2365567730036</v>
+        <v>17.9581055890812</v>
       </c>
       <c r="D10" t="n">
-        <v>84.296235187304</v>
+        <v>28.8317126736977</v>
       </c>
       <c r="E10" t="n">
-        <v>36.4361564495362</v>
+        <v>12.9358465937907</v>
       </c>
       <c r="F10" t="n">
-        <v>26.9587760682236</v>
+        <v>9.73126232311969</v>
       </c>
       <c r="G10" t="n">
-        <v>22.8968422732882</v>
+        <v>8.3295142490312</v>
       </c>
       <c r="H10" t="n">
-        <v>20.6376326569388</v>
+        <v>7.53637844347138</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.955246802787151</v>
+        <v>0.377246230505831</v>
       </c>
       <c r="B2" t="n">
-        <v>3.1524723287432</v>
+        <v>1.53115307394564</v>
       </c>
       <c r="C2" t="n">
-        <v>16.349040124224</v>
+        <v>9.06124125949666</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9788920812833</v>
+        <v>14.6610775397891</v>
       </c>
       <c r="E2" t="n">
-        <v>11.0058506345898</v>
+        <v>6.62673773106001</v>
       </c>
       <c r="F2" t="n">
-        <v>8.23521341252156</v>
+        <v>5.02279186666647</v>
       </c>
       <c r="G2" t="n">
-        <v>7.04512039184319</v>
+        <v>4.32816809066697</v>
       </c>
       <c r="H2" t="n">
-        <v>6.38141525007184</v>
+        <v>3.93785917068318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.954400970043228</v>
+        <v>0.531961780348107</v>
       </c>
       <c r="B3" t="n">
-        <v>3.11465869211618</v>
+        <v>1.93026661526604</v>
       </c>
       <c r="C3" t="n">
-        <v>16.0711085835471</v>
+        <v>10.7581701020449</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4244997591291</v>
+        <v>16.9231910364992</v>
       </c>
       <c r="E3" t="n">
-        <v>10.7159062066514</v>
+        <v>7.53737402259243</v>
       </c>
       <c r="F3" t="n">
-        <v>7.99458828133938</v>
+        <v>5.66489263904039</v>
       </c>
       <c r="G3" t="n">
-        <v>6.82530288744762</v>
+        <v>4.85586201783629</v>
       </c>
       <c r="H3" t="n">
-        <v>6.17327354058895</v>
+        <v>4.40249923128244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.60502871490991</v>
+        <v>0.451588606883079</v>
       </c>
       <c r="B4" t="n">
-        <v>1.93246104622172</v>
+        <v>1.50056199447779</v>
       </c>
       <c r="C4" t="n">
-        <v>9.94790486003862</v>
+        <v>8.02386952314095</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0778497919971</v>
+        <v>12.3751964537107</v>
       </c>
       <c r="E4" t="n">
-        <v>6.59736978451913</v>
+        <v>5.45482521156807</v>
       </c>
       <c r="F4" t="n">
-        <v>4.91223648152304</v>
+        <v>4.07564641072005</v>
       </c>
       <c r="G4" t="n">
-        <v>4.18800190132557</v>
+        <v>3.48109413636927</v>
       </c>
       <c r="H4" t="n">
-        <v>3.78423393915607</v>
+        <v>3.14876771049165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.52516064738145</v>
+        <v>0.106277596447589</v>
       </c>
       <c r="B5" t="n">
-        <v>1.64291388812016</v>
+        <v>0.43008236394262</v>
       </c>
       <c r="C5" t="n">
-        <v>8.64101485695812</v>
+        <v>3.25771076768237</v>
       </c>
       <c r="D5" t="n">
-        <v>13.2683400103766</v>
+        <v>5.72048052019604</v>
       </c>
       <c r="E5" t="n">
-        <v>5.84750175830013</v>
+        <v>2.65829429979041</v>
       </c>
       <c r="F5" t="n">
-        <v>4.37164109535897</v>
+        <v>2.03689542698722</v>
       </c>
       <c r="G5" t="n">
-        <v>3.73632355916536</v>
+        <v>1.76365437482293</v>
       </c>
       <c r="H5" t="n">
-        <v>3.38161408824526</v>
+        <v>1.60837673930425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.451817806748865</v>
+        <v>0.188947859301376</v>
       </c>
       <c r="B6" t="n">
-        <v>1.3840800423331</v>
+        <v>0.626617921341558</v>
       </c>
       <c r="C6" t="n">
-        <v>7.25072011229952</v>
+        <v>3.89232395369161</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0911945632886</v>
+        <v>6.39169519772462</v>
       </c>
       <c r="E6" t="n">
-        <v>4.8738839645547</v>
+        <v>2.89005339910631</v>
       </c>
       <c r="F6" t="n">
-        <v>3.63742450182713</v>
+        <v>2.18558118065686</v>
       </c>
       <c r="G6" t="n">
-        <v>3.10563107778527</v>
+        <v>1.87907520803626</v>
       </c>
       <c r="H6" t="n">
-        <v>2.80899911609027</v>
+        <v>1.70648606777835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.743129274417102</v>
+        <v>0.496767590514332</v>
       </c>
       <c r="B7" t="n">
-        <v>2.19489008843974</v>
+        <v>1.48747739830484</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5342016775521</v>
+        <v>8.4124752419621</v>
       </c>
       <c r="D7" t="n">
-        <v>17.67440143988</v>
+        <v>13.3188209926562</v>
       </c>
       <c r="E7" t="n">
-        <v>7.76858235877456</v>
+        <v>5.93171094663827</v>
       </c>
       <c r="F7" t="n">
-        <v>5.79765083137574</v>
+        <v>4.45372557376951</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9496958262506</v>
+        <v>3.81440000820645</v>
       </c>
       <c r="H7" t="n">
-        <v>4.47652599555665</v>
+        <v>3.45606662048841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.72910998278949</v>
+        <v>-1.0960887338673</v>
       </c>
       <c r="B8" t="n">
-        <v>2.80167458880431</v>
+        <v>-2.3679219907168</v>
       </c>
       <c r="C8" t="n">
-        <v>14.0103875823985</v>
+        <v>-9.13642232615983</v>
       </c>
       <c r="D8" t="n">
-        <v>21.1210086547668</v>
+        <v>-11.4791103851913</v>
       </c>
       <c r="E8" t="n">
-        <v>9.30066231297653</v>
+        <v>-4.51691696130544</v>
       </c>
       <c r="F8" t="n">
-        <v>6.97611833524905</v>
+        <v>-3.15941993394664</v>
       </c>
       <c r="G8" t="n">
-        <v>5.9836384077002</v>
+        <v>-2.59014421118667</v>
       </c>
       <c r="H8" t="n">
-        <v>5.43186611958858</v>
+        <v>-2.28054235680443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.995308723641415</v>
+        <v>-0.843205236026106</v>
       </c>
       <c r="B9" t="n">
-        <v>3.88375332469414</v>
+        <v>-1.24367643406546</v>
       </c>
       <c r="C9" t="n">
-        <v>19.2848618889599</v>
+        <v>-3.79499574837198</v>
       </c>
       <c r="D9" t="n">
-        <v>28.8119400119288</v>
+        <v>-3.7556306805527</v>
       </c>
       <c r="E9" t="n">
-        <v>12.5874080644266</v>
+        <v>-1.21748782314352</v>
       </c>
       <c r="F9" t="n">
-        <v>9.3823213507669</v>
+        <v>-0.741482810668677</v>
       </c>
       <c r="G9" t="n">
-        <v>8.00874732865629</v>
+        <v>-0.553295579647231</v>
       </c>
       <c r="H9" t="n">
-        <v>7.24339227513885</v>
+        <v>-0.457357802915297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.69548437872273</v>
+        <v>-0.130634876946849</v>
       </c>
       <c r="B10" t="n">
-        <v>6.74606184550887</v>
+        <v>1.73074412000678</v>
       </c>
       <c r="C10" t="n">
-        <v>32.9977546326764</v>
+        <v>10.3531238653352</v>
       </c>
       <c r="D10" t="n">
-        <v>48.5980751113423</v>
+        <v>16.62192546312</v>
       </c>
       <c r="E10" t="n">
-        <v>21.0060041705145</v>
+        <v>7.45771436882064</v>
       </c>
       <c r="F10" t="n">
-        <v>15.542148725412</v>
+        <v>5.61022228639665</v>
       </c>
       <c r="G10" t="n">
-        <v>13.2003814658784</v>
+        <v>4.80209297860057</v>
       </c>
       <c r="H10" t="n">
-        <v>11.8979124008762</v>
+        <v>4.34483799720732</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00747139503268617</v>
+        <v>0.00295060460236775</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0246568384515187</v>
+        <v>0.0119758050354958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127872856330859</v>
+        <v>0.0708718550416958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195370630577958</v>
+        <v>0.114670576844647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0860814791756833</v>
+        <v>0.0518305585763765</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0644111368956174</v>
+        <v>0.0392854098996553</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0551029088469212</v>
+        <v>0.0338524593632641</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0499117862125084</v>
+        <v>0.0307996858627703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00684068094482656</v>
+        <v>0.00381284274474123</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0223243553114081</v>
+        <v>0.0138352102187063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115189872705944</v>
+        <v>0.0771093193827414</v>
       </c>
       <c r="D3" t="n">
-        <v>0.175062908917232</v>
+        <v>0.121297184393889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0768063923814626</v>
+        <v>0.0540242230139848</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0573013119584476</v>
+        <v>0.0406031891696597</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0489204442056654</v>
+        <v>0.034804452026715</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0442470156693116</v>
+        <v>0.0315549685575899</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00596905748023986</v>
+        <v>0.00445525689191118</v>
       </c>
       <c r="B4" t="n">
-        <v>0.019065162989726</v>
+        <v>0.0148041581779057</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0981434673333971</v>
+        <v>0.0791614302218776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.148754182849412</v>
+        <v>0.122090501064001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0650879511860129</v>
+        <v>0.0538159006839199</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0484628600133603</v>
+        <v>0.0402092778329434</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0413177481668592</v>
+        <v>0.0343435782171234</v>
       </c>
       <c r="H4" t="n">
-        <v>0.037334277439808</v>
+        <v>0.0310649312878424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0114686676826078</v>
+        <v>0.00232093254100659</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0358786087798869</v>
+        <v>0.00939231020603412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188705928993471</v>
+        <v>0.0711431871121611</v>
       </c>
       <c r="D5" t="n">
-        <v>0.289759301344467</v>
+        <v>0.124926135265628</v>
       </c>
       <c r="E5" t="n">
-        <v>0.127700075726919</v>
+        <v>0.0580528912036367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0954696419091863</v>
+        <v>0.044482534768779</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0815953241516233</v>
+        <v>0.038515387686941</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0738490372465777</v>
+        <v>0.0351243727485898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0105360685780918</v>
+        <v>0.00440612913777759</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0322757581170219</v>
+        <v>0.0146122824131755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.169081614762916</v>
+        <v>0.0907662148141911</v>
       </c>
       <c r="D6" t="n">
-        <v>0.258638736203508</v>
+        <v>0.149049767245933</v>
       </c>
       <c r="E6" t="n">
-        <v>0.11365549326557</v>
+        <v>0.0673939812740854</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0848221416385737</v>
+        <v>0.0509661922536552</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0724210987814967</v>
+        <v>0.0438186918698991</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0655038532807907</v>
+        <v>0.0397940363772882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00924538706361137</v>
+        <v>0.00618036297730986</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0273069694981762</v>
+        <v>0.0185059380233525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.143498799804879</v>
+        <v>0.104660914934342</v>
       </c>
       <c r="D7" t="n">
-        <v>0.219889981534524</v>
+        <v>0.165701526702264</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0966501432725161</v>
+        <v>0.07379733989641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0721294771192819</v>
+        <v>0.0554094936401232</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0615799368107565</v>
+        <v>0.0474555446883354</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0556931572393011</v>
+        <v>0.0429974631925324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.74008396423581</v>
+        <v>-10.1325318167417</v>
       </c>
       <c r="B8" t="n">
-        <v>25.8994149233298</v>
+        <v>-21.8896921108261</v>
       </c>
       <c r="C8" t="n">
-        <v>129.51569846235</v>
+        <v>-84.4594849400319</v>
       </c>
       <c r="D8" t="n">
-        <v>195.24814513969</v>
+        <v>-106.115907966191</v>
       </c>
       <c r="E8" t="n">
-        <v>85.9777624668246</v>
+        <v>-41.7555654116856</v>
       </c>
       <c r="F8" t="n">
-        <v>64.4890680883725</v>
+        <v>-29.2065067489673</v>
       </c>
       <c r="G8" t="n">
-        <v>55.3143232591972</v>
+        <v>-23.9439726172532</v>
       </c>
       <c r="H8" t="n">
-        <v>50.2135954694303</v>
+        <v>-21.0819318507343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.87473932896977</v>
+        <v>-5.82413884336691</v>
       </c>
       <c r="B9" t="n">
-        <v>26.8256382076193</v>
+        <v>-8.59025053302258</v>
       </c>
       <c r="C9" t="n">
-        <v>133.203291936128</v>
+        <v>-26.2125769672298</v>
       </c>
       <c r="D9" t="n">
-        <v>199.008179511633</v>
+        <v>-25.9406768286129</v>
       </c>
       <c r="E9" t="n">
-        <v>86.9430230187363</v>
+        <v>-8.40936206173756</v>
       </c>
       <c r="F9" t="n">
-        <v>64.8050319012256</v>
+        <v>-5.1215275413335</v>
       </c>
       <c r="G9" t="n">
-        <v>55.3175601984686</v>
+        <v>-3.82169149289637</v>
       </c>
       <c r="H9" t="n">
-        <v>50.0311436705475</v>
+        <v>-3.15903558406444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.45924420427638</v>
+        <v>-0.497676405860465</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7003021815626</v>
+        <v>6.59357235403192</v>
       </c>
       <c r="C10" t="n">
-        <v>125.710716087998</v>
+        <v>39.442035658093</v>
       </c>
       <c r="D10" t="n">
-        <v>185.142864741935</v>
+        <v>63.3241314747198</v>
       </c>
       <c r="E10" t="n">
-        <v>80.0260458876159</v>
+        <v>28.4114669049575</v>
       </c>
       <c r="F10" t="n">
-        <v>59.2105331883075</v>
+        <v>21.373122774159</v>
       </c>
       <c r="G10" t="n">
-        <v>50.2891613439371</v>
+        <v>18.2944128708451</v>
       </c>
       <c r="H10" t="n">
-        <v>45.3271776978817</v>
+        <v>16.5524200660127</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00012747691462839</v>
+        <v>0.0000503432048971635</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000420694887171588</v>
+        <v>0.000204331141565576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00218176620543604</v>
+        <v>0.00120921533062852</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00333341298192969</v>
+        <v>0.00195650896129338</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00146872188178476</v>
+        <v>0.000884332800216972</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00109898258133035</v>
+        <v>0.000670287519534243</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000940165628523795</v>
+        <v>0.000577590537420743</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000851594713186365</v>
+        <v>0.000525504127158703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.000116709701282515</v>
+        <v>0.0000650513803179918</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000380878579301322</v>
+        <v>0.000236044227881608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00196526862496765</v>
+        <v>0.00131557160812533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00298676988009946</v>
+        <v>0.00206946622290974</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00131040333319557</v>
+        <v>0.000921713931819983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000977624750475214</v>
+        <v>0.000692736018143376</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000834637732106054</v>
+        <v>0.000593803048570994</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00075490379145859</v>
+        <v>0.000538363210335172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.000101832172744451</v>
+        <v>0.0000760067214865846</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000325251847112867</v>
+        <v>0.00025255906780916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00167432840985681</v>
+        <v>0.00135049469095213</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00253774765857545</v>
+        <v>0.00208286501444553</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00111040101568768</v>
+        <v>0.000918099735676015</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000826776815084774</v>
+        <v>0.000685970631003101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000704881144580679</v>
+        <v>0.000585901744328343</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000636923099187013</v>
+        <v>0.000529967999080309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.000195895735425262</v>
+        <v>0.0000396437319116328</v>
       </c>
       <c r="B5" t="n">
-        <v>0.000612840710663356</v>
+        <v>0.000160429577878822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00322327647485534</v>
+        <v>0.00121519319815751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0049493640415848</v>
+        <v>0.00213385702846796</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00218123856586437</v>
+        <v>0.000991598512628042</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00163071214810315</v>
+        <v>0.00075980393741153</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00139372562483303</v>
+        <v>0.000657879398455707</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00126141168810783</v>
+        <v>0.000599957642976318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.000179956845319797</v>
+        <v>0.0000752570177224207</v>
       </c>
       <c r="B6" t="n">
-        <v>0.000551272380963949</v>
+        <v>0.000249578884809544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00288792672226725</v>
+        <v>0.00155029378923606</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00441756910556407</v>
+        <v>0.00254578125706222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00194124439013871</v>
+        <v>0.0011510942790221</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00144876857144672</v>
+        <v>0.000870506404542709</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00123695782489601</v>
+        <v>0.000748426559347192</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00111881075045517</v>
+        <v>0.000679685140232357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.000157869659117998</v>
+        <v>0.000105532822989488</v>
       </c>
       <c r="B7" t="n">
-        <v>0.000466280312177514</v>
+        <v>0.000315998249430163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00245031456802946</v>
+        <v>0.00178713804516566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00375473262389931</v>
+        <v>0.00282943735679577</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0016503500683267</v>
+        <v>0.00126012689496967</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00123164729468152</v>
+        <v>0.000946145122176233</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00105150855945069</v>
+        <v>0.000810327421844041</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000950988821569054</v>
+        <v>0.000734203426037232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.3806692924429</v>
+        <v>-18.6121606472389</v>
       </c>
       <c r="B8" t="n">
-        <v>47.573901561902</v>
+        <v>-40.208555320017</v>
       </c>
       <c r="C8" t="n">
-        <v>237.903717424079</v>
+        <v>-155.141235213256</v>
       </c>
       <c r="D8" t="n">
-        <v>358.645786575373</v>
+        <v>-194.921305159985</v>
       </c>
       <c r="E8" t="n">
-        <v>157.930116190572</v>
+        <v>-76.6996152012569</v>
       </c>
       <c r="F8" t="n">
-        <v>118.458142245191</v>
+        <v>-53.6486048490147</v>
       </c>
       <c r="G8" t="n">
-        <v>101.605313382035</v>
+        <v>-43.9820049860657</v>
       </c>
       <c r="H8" t="n">
-        <v>92.2359310047578</v>
+        <v>-38.7248033814893</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15.0554740737651</v>
+        <v>-12.7546903471406</v>
       </c>
       <c r="B9" t="n">
-        <v>58.7473475314354</v>
+        <v>-18.8123924411327</v>
       </c>
       <c r="C9" t="n">
-        <v>291.711236211348</v>
+        <v>-57.4047617011017</v>
       </c>
       <c r="D9" t="n">
-        <v>435.821977202672</v>
+        <v>-56.8093085076475</v>
       </c>
       <c r="E9" t="n">
-        <v>190.402627113064</v>
+        <v>-18.4162520844796</v>
       </c>
       <c r="F9" t="n">
-        <v>141.921086887906</v>
+        <v>-11.2159925528661</v>
       </c>
       <c r="G9" t="n">
-        <v>121.14380684697</v>
+        <v>-8.3693903777225</v>
       </c>
       <c r="H9" t="n">
-        <v>109.566712331713</v>
+        <v>-6.91819370278741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22.8858424131221</v>
+        <v>-1.76332453721303</v>
       </c>
       <c r="B10" t="n">
-        <v>91.0591157565241</v>
+        <v>23.3617824410462</v>
       </c>
       <c r="C10" t="n">
-        <v>445.407472924761</v>
+        <v>139.747652198418</v>
       </c>
       <c r="D10" t="n">
-        <v>655.982386235323</v>
+        <v>224.364654446537</v>
       </c>
       <c r="E10" t="n">
-        <v>283.541451168037</v>
+        <v>100.665083057552</v>
       </c>
       <c r="F10" t="n">
-        <v>209.789704319803</v>
+        <v>75.7274232427807</v>
       </c>
       <c r="G10" t="n">
-        <v>178.180261530204</v>
+        <v>64.819201250444</v>
       </c>
       <c r="H10" t="n">
-        <v>160.599384853497</v>
+        <v>58.6471211191813</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.3364631622206</v>
+        <v>3.29223745583076</v>
       </c>
       <c r="B2" t="n">
-        <v>27.5117062541411</v>
+        <v>13.3624118494043</v>
       </c>
       <c r="C2" t="n">
-        <v>142.678489303072</v>
+        <v>79.0776831111979</v>
       </c>
       <c r="D2" t="n">
-        <v>217.991426991566</v>
+        <v>127.94759686429</v>
       </c>
       <c r="E2" t="n">
-        <v>96.048338624593</v>
+        <v>57.8317088520929</v>
       </c>
       <c r="F2" t="n">
-        <v>71.8689170654133</v>
+        <v>43.8340324676243</v>
       </c>
       <c r="G2" t="n">
-        <v>61.4829449820169</v>
+        <v>37.7720330939266</v>
       </c>
       <c r="H2" t="n">
-        <v>55.6907733162132</v>
+        <v>34.3657972145316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.72717131020602</v>
+        <v>4.86433033211381</v>
       </c>
       <c r="B3" t="n">
-        <v>28.4808595465792</v>
+        <v>17.6506185078954</v>
       </c>
       <c r="C3" t="n">
-        <v>146.956386420254</v>
+        <v>98.3741597209713</v>
       </c>
       <c r="D3" t="n">
-        <v>223.340923002573</v>
+        <v>154.747943397608</v>
       </c>
       <c r="E3" t="n">
-        <v>97.987692956044</v>
+        <v>68.9227655764866</v>
       </c>
       <c r="F3" t="n">
-        <v>73.1035944804773</v>
+        <v>51.8005430281481</v>
       </c>
       <c r="G3" t="n">
-        <v>62.4114909901037</v>
+        <v>44.4026578121149</v>
       </c>
       <c r="H3" t="n">
-        <v>56.4492466211991</v>
+        <v>40.2570472897905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.88284756435572</v>
+        <v>6.63008656926218</v>
       </c>
       <c r="B4" t="n">
-        <v>28.3718052955534</v>
+        <v>22.0307947859906</v>
       </c>
       <c r="C4" t="n">
-        <v>146.052113360594</v>
+        <v>117.804011766538</v>
       </c>
       <c r="D4" t="n">
-        <v>221.368404507059</v>
+        <v>181.688870244177</v>
       </c>
       <c r="E4" t="n">
-        <v>96.8605764939537</v>
+        <v>80.086084594809</v>
       </c>
       <c r="F4" t="n">
-        <v>72.1199618962441</v>
+        <v>59.8374009372935</v>
       </c>
       <c r="G4" t="n">
-        <v>61.4869700758687</v>
+        <v>51.108365286671</v>
       </c>
       <c r="H4" t="n">
-        <v>55.5589716669729</v>
+        <v>46.2292497836694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.6480593167954</v>
+        <v>2.55960790401568</v>
       </c>
       <c r="B5" t="n">
-        <v>39.5682205301218</v>
+        <v>10.3581775926609</v>
       </c>
       <c r="C5" t="n">
-        <v>208.111687372364</v>
+        <v>78.459266192277</v>
       </c>
       <c r="D5" t="n">
-        <v>319.55698189388</v>
+        <v>137.773036309513</v>
       </c>
       <c r="E5" t="n">
-        <v>140.832237645417</v>
+        <v>64.0228169282964</v>
       </c>
       <c r="F5" t="n">
-        <v>105.287355710183</v>
+        <v>49.0569396452335</v>
       </c>
       <c r="G5" t="n">
-        <v>89.986258945138</v>
+        <v>42.4761551694933</v>
       </c>
       <c r="H5" t="n">
-        <v>81.443375066088</v>
+        <v>38.7364219004364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.6189607146223</v>
+        <v>4.85898900296096</v>
       </c>
       <c r="B6" t="n">
-        <v>35.5930452442299</v>
+        <v>16.1141258763904</v>
       </c>
       <c r="C6" t="n">
-        <v>186.459743018399</v>
+        <v>100.095123368309</v>
       </c>
       <c r="D6" t="n">
-        <v>285.221502969032</v>
+        <v>164.36903170459</v>
       </c>
       <c r="E6" t="n">
-        <v>125.336951014118</v>
+        <v>74.3207027385742</v>
       </c>
       <c r="F6" t="n">
-        <v>93.5401211679673</v>
+        <v>56.2044733460115</v>
       </c>
       <c r="G6" t="n">
-        <v>79.8645050015793</v>
+        <v>48.3223562592555</v>
       </c>
       <c r="H6" t="n">
-        <v>72.2363082856599</v>
+        <v>43.8840485819715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.1928957693339</v>
+        <v>6.8137542766936</v>
       </c>
       <c r="B7" t="n">
-        <v>30.105510126968</v>
+        <v>20.4025094988403</v>
       </c>
       <c r="C7" t="n">
-        <v>158.205199995629</v>
+        <v>115.387034605359</v>
       </c>
       <c r="D7" t="n">
-        <v>242.425292427581</v>
+        <v>182.683361861969</v>
       </c>
       <c r="E7" t="n">
-        <v>106.555283157949</v>
+        <v>81.3604220615932</v>
       </c>
       <c r="F7" t="n">
-        <v>79.5216292314121</v>
+        <v>61.0881069034155</v>
       </c>
       <c r="G7" t="n">
-        <v>67.8909247471821</v>
+        <v>52.3190016120566</v>
       </c>
       <c r="H7" t="n">
-        <v>61.4008416196672</v>
+        <v>47.4040359426619</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.03002181012795</v>
+        <v>-6.05842960265175</v>
       </c>
       <c r="B8" t="n">
-        <v>15.485742843028</v>
+        <v>-13.0882548484122</v>
       </c>
       <c r="C8" t="n">
-        <v>77.4398497595579</v>
+        <v>-50.4999000289299</v>
       </c>
       <c r="D8" t="n">
-        <v>116.742504614954</v>
+        <v>-63.4486789444274</v>
       </c>
       <c r="E8" t="n">
-        <v>51.4077064567532</v>
+        <v>-24.9664307145462</v>
       </c>
       <c r="F8" t="n">
-        <v>38.5592156255036</v>
+        <v>-17.463114676396</v>
       </c>
       <c r="G8" t="n">
-        <v>33.0734647119944</v>
+        <v>-14.3165474466871</v>
       </c>
       <c r="H8" t="n">
-        <v>30.0236445095518</v>
+        <v>-12.6052799355183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.87949069287277</v>
+        <v>-4.13380492267572</v>
       </c>
       <c r="B9" t="n">
-        <v>19.0400603864155</v>
+        <v>-6.09711081679812</v>
       </c>
       <c r="C9" t="n">
-        <v>94.5438353601918</v>
+        <v>-18.6049272892179</v>
       </c>
       <c r="D9" t="n">
-        <v>141.250237029436</v>
+        <v>-18.4119404525852</v>
       </c>
       <c r="E9" t="n">
-        <v>61.7096374610791</v>
+        <v>-5.9687214234194</v>
       </c>
       <c r="F9" t="n">
-        <v>45.99673309515</v>
+        <v>-3.6351117875728</v>
       </c>
       <c r="G9" t="n">
-        <v>39.2628007004458</v>
+        <v>-2.71252583963986</v>
       </c>
       <c r="H9" t="n">
-        <v>35.5106554899443</v>
+        <v>-2.2421918844167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.27481649566718</v>
+        <v>-0.483466489613462</v>
       </c>
       <c r="B10" t="n">
-        <v>24.966493752587</v>
+        <v>6.40530923804724</v>
       </c>
       <c r="C10" t="n">
-        <v>122.121358172039</v>
+        <v>38.3158660894477</v>
       </c>
       <c r="D10" t="n">
-        <v>179.856569127489</v>
+        <v>61.5160678533106</v>
       </c>
       <c r="E10" t="n">
-        <v>77.7411004968941</v>
+        <v>27.6002478870981</v>
       </c>
       <c r="F10" t="n">
-        <v>57.5199231701541</v>
+        <v>20.762866227975</v>
       </c>
       <c r="G10" t="n">
-        <v>48.8532789866173</v>
+        <v>17.7720612551736</v>
       </c>
       <c r="H10" t="n">
-        <v>44.0329724849858</v>
+        <v>16.0798067372442</v>
       </c>
     </row>
     <row r="11">
@@ -3481,158 +3481,158 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.71969466148667</v>
+        <v>0.284221938632872</v>
       </c>
       <c r="B2" t="n">
-        <v>2.37511133129275</v>
+        <v>1.15358951217879</v>
       </c>
       <c r="C2" t="n">
-        <v>12.3175674218479</v>
+        <v>6.82685034053507</v>
       </c>
       <c r="D2" t="n">
-        <v>18.819403769056</v>
+        <v>11.0458357005142</v>
       </c>
       <c r="E2" t="n">
-        <v>8.29194290284256</v>
+        <v>4.9926655124109</v>
       </c>
       <c r="F2" t="n">
-        <v>6.20451082579108</v>
+        <v>3.78423301878771</v>
       </c>
       <c r="G2" t="n">
-        <v>5.30788014233239</v>
+        <v>3.26089494336057</v>
       </c>
       <c r="H2" t="n">
-        <v>4.80783654528459</v>
+        <v>2.96683141420416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.659246753648654</v>
+        <v>0.367449413576941</v>
       </c>
       <c r="B3" t="n">
-        <v>2.15143183625238</v>
+        <v>1.33332010311439</v>
       </c>
       <c r="C3" t="n">
-        <v>11.1010219957746</v>
+        <v>7.43114156165608</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8710769174605</v>
+        <v>11.6895928465819</v>
       </c>
       <c r="E3" t="n">
-        <v>7.40194802905366</v>
+        <v>5.20639596081372</v>
       </c>
       <c r="F3" t="n">
-        <v>5.52221397154682</v>
+        <v>3.91299066039967</v>
       </c>
       <c r="G3" t="n">
-        <v>4.71453708918048</v>
+        <v>3.35415760451226</v>
       </c>
       <c r="H3" t="n">
-        <v>4.26415172318409</v>
+        <v>3.04099997512805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.15029680689498</v>
+        <v>0.858572361487186</v>
       </c>
       <c r="B4" t="n">
-        <v>3.67404672892058</v>
+        <v>2.85290867732251</v>
       </c>
       <c r="C4" t="n">
-        <v>18.9132233128826</v>
+        <v>15.2551957683287</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6664120944392</v>
+        <v>23.5280551395336</v>
       </c>
       <c r="E4" t="n">
-        <v>12.543096236627</v>
+        <v>10.3708598755867</v>
       </c>
       <c r="F4" t="n">
-        <v>9.33927564124022</v>
+        <v>7.74872817893007</v>
       </c>
       <c r="G4" t="n">
-        <v>7.96234144867362</v>
+        <v>6.61834946158327</v>
       </c>
       <c r="H4" t="n">
-        <v>7.1946869784569</v>
+        <v>5.98652155471975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.545959394969583</v>
+        <v>0.110486672115784</v>
       </c>
       <c r="B5" t="n">
-        <v>1.70798074230741</v>
+        <v>0.447115579539319</v>
       </c>
       <c r="C5" t="n">
-        <v>8.98323830384301</v>
+        <v>3.38673091477453</v>
       </c>
       <c r="D5" t="n">
-        <v>13.7938265565703</v>
+        <v>5.94703753854012</v>
       </c>
       <c r="E5" t="n">
-        <v>6.07908939476618</v>
+        <v>2.76357483143725</v>
       </c>
       <c r="F5" t="n">
-        <v>4.54477794432442</v>
+        <v>2.11756574008202</v>
       </c>
       <c r="G5" t="n">
-        <v>3.88429894727213</v>
+        <v>1.83350310084143</v>
       </c>
       <c r="H5" t="n">
-        <v>3.51554136975918</v>
+        <v>1.67207576548646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.00307574514725</v>
+        <v>0.419481065003823</v>
       </c>
       <c r="B6" t="n">
-        <v>3.07278088439394</v>
+        <v>1.39114755767399</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0972440015884</v>
+        <v>8.64130561453022</v>
       </c>
       <c r="D6" t="n">
-        <v>24.6234391052401</v>
+        <v>14.1901322334897</v>
       </c>
       <c r="E6" t="n">
-        <v>10.8204562026576</v>
+        <v>6.416175775992</v>
       </c>
       <c r="F6" t="n">
-        <v>8.07540614399715</v>
+        <v>4.85218474929594</v>
       </c>
       <c r="G6" t="n">
-        <v>6.89477741020826</v>
+        <v>4.17171420943211</v>
       </c>
       <c r="H6" t="n">
-        <v>6.23622805343824</v>
+        <v>3.78855095671695</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.879962224690695</v>
+        <v>0.588237779282899</v>
       </c>
       <c r="B7" t="n">
-        <v>2.59903684549363</v>
+        <v>1.76136772651858</v>
       </c>
       <c r="C7" t="n">
-        <v>13.6580028773205</v>
+        <v>9.96147061341229</v>
       </c>
       <c r="D7" t="n">
-        <v>20.9288022239638</v>
+        <v>15.7712254844864</v>
       </c>
       <c r="E7" t="n">
-        <v>9.19901725104591</v>
+        <v>7.02392132905838</v>
       </c>
       <c r="F7" t="n">
-        <v>6.86517662429454</v>
+        <v>5.2737934017337</v>
       </c>
       <c r="G7" t="n">
-        <v>5.86108702853369</v>
+        <v>4.51674834060919</v>
       </c>
       <c r="H7" t="n">
-        <v>5.30079208227341</v>
+        <v>4.09243475763986</v>
       </c>
     </row>
     <row r="8">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
@@ -637,28 +637,28 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.0125</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.0125</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.0125</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0.666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.425427569678962</v>
+        <v>0.898092698563441</v>
       </c>
       <c r="B5" t="n">
-        <v>1.72161303011894</v>
+        <v>2.99748695994486</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0405656595326</v>
+        <v>18.5299415098141</v>
       </c>
       <c r="D5" t="n">
-        <v>22.8989947688834</v>
+        <v>30.488834545945</v>
       </c>
       <c r="E5" t="n">
-        <v>10.6411108385292</v>
+        <v>13.8359926521269</v>
       </c>
       <c r="F5" t="n">
-        <v>8.15366079172388</v>
+        <v>10.4904255548253</v>
       </c>
       <c r="G5" t="n">
-        <v>7.059881099255</v>
+        <v>9.03385898435879</v>
       </c>
       <c r="H5" t="n">
-        <v>6.43830713341187</v>
+        <v>8.21267400856103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.998539908212652</v>
+        <v>1.3882651675882</v>
       </c>
       <c r="B6" t="n">
-        <v>3.31151146127986</v>
+        <v>4.34999997923953</v>
       </c>
       <c r="C6" t="n">
-        <v>20.5699118149513</v>
+        <v>25.0673231595124</v>
       </c>
       <c r="D6" t="n">
-        <v>33.7784336888367</v>
+        <v>40.0060278431768</v>
       </c>
       <c r="E6" t="n">
-        <v>15.2731746553969</v>
+        <v>17.8953260888558</v>
       </c>
       <c r="F6" t="n">
-        <v>11.5502236415573</v>
+        <v>13.4682065415295</v>
       </c>
       <c r="G6" t="n">
-        <v>9.9304199195208</v>
+        <v>11.5506660544879</v>
       </c>
       <c r="H6" t="n">
-        <v>9.01833155340308</v>
+        <v>10.4747488531009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.02824624754217</v>
+        <v>2.3102509580171</v>
       </c>
       <c r="B7" t="n">
-        <v>6.07320306119795</v>
+        <v>6.80998297721654</v>
       </c>
       <c r="C7" t="n">
-        <v>34.3471910564559</v>
+        <v>37.555818842911</v>
       </c>
       <c r="D7" t="n">
-        <v>54.379249403271</v>
+        <v>58.8300425711585</v>
       </c>
       <c r="E7" t="n">
-        <v>24.2185092158841</v>
+        <v>26.0932159735565</v>
       </c>
       <c r="F7" t="n">
-        <v>18.1840610278701</v>
+        <v>19.5554563525307</v>
       </c>
       <c r="G7" t="n">
-        <v>15.5737665882339</v>
+        <v>16.7323193896623</v>
       </c>
       <c r="H7" t="n">
-        <v>14.1107316340902</v>
+        <v>15.1521592799461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.10378663266747</v>
+        <v>0.411909640081902</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.54488991387849</v>
+        <v>3.02861088128262</v>
       </c>
       <c r="C8" t="n">
-        <v>-17.5360648880701</v>
+        <v>16.2736986450452</v>
       </c>
       <c r="D8" t="n">
-        <v>-22.032521854388</v>
+        <v>25.2705922375527</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.66958050972337</v>
+        <v>11.3067581788327</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.06405778897893</v>
+        <v>8.5630569064481</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.97141390090707</v>
+        <v>7.39091518517744</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.37717711826966</v>
+        <v>6.73801080140795</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.59386825747064</v>
+        <v>0.906436553506536</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.35085873062563</v>
+        <v>5.01404947344727</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.17348873338692</v>
+        <v>25.8944834981286</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.09907893447958</v>
+        <v>39.3012719081588</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.30135572249388</v>
+        <v>17.3118705287294</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.40158749601067</v>
+        <v>12.9649506849655</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.04586668075581</v>
+        <v>11.0986329090925</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.864520348342138</v>
+        <v>10.0561903599043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.226593919317722</v>
+        <v>2.05287487145844</v>
       </c>
       <c r="B10" t="n">
-        <v>3.00207802582461</v>
+        <v>9.56098299787828</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9581055890812</v>
+        <v>47.5505722001822</v>
       </c>
       <c r="D10" t="n">
-        <v>28.8317126736977</v>
+        <v>70.4888001520081</v>
       </c>
       <c r="E10" t="n">
-        <v>12.9358465937907</v>
+        <v>30.5633874152178</v>
       </c>
       <c r="F10" t="n">
-        <v>9.73126232311969</v>
+        <v>22.6489835523746</v>
       </c>
       <c r="G10" t="n">
-        <v>8.3295142490312</v>
+        <v>19.2519837128085</v>
       </c>
       <c r="H10" t="n">
-        <v>7.53637844347138</v>
+        <v>17.3599207112316</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.106277596447589</v>
+        <v>0.224355778029333</v>
       </c>
       <c r="B5" t="n">
-        <v>0.43008236394262</v>
+        <v>0.748813034675512</v>
       </c>
       <c r="C5" t="n">
-        <v>3.25771076768237</v>
+        <v>4.62903155868236</v>
       </c>
       <c r="D5" t="n">
-        <v>5.72048052019604</v>
+        <v>7.61652578481563</v>
       </c>
       <c r="E5" t="n">
-        <v>2.65829429979041</v>
+        <v>3.45641925520765</v>
       </c>
       <c r="F5" t="n">
-        <v>2.03689542698722</v>
+        <v>2.62065106528129</v>
       </c>
       <c r="G5" t="n">
-        <v>1.76365437482293</v>
+        <v>2.25678091391356</v>
       </c>
       <c r="H5" t="n">
-        <v>1.60837673930425</v>
+        <v>2.05163773164985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.188947859301376</v>
+        <v>0.262693287870669</v>
       </c>
       <c r="B6" t="n">
-        <v>0.626617921341558</v>
+        <v>0.823125022123102</v>
       </c>
       <c r="C6" t="n">
-        <v>3.89232395369161</v>
+        <v>4.74334276522176</v>
       </c>
       <c r="D6" t="n">
-        <v>6.39169519772462</v>
+        <v>7.57010637026007</v>
       </c>
       <c r="E6" t="n">
-        <v>2.89005339910631</v>
+        <v>3.38622775933085</v>
       </c>
       <c r="F6" t="n">
-        <v>2.18558118065686</v>
+        <v>2.54850985295706</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87907520803626</v>
+        <v>2.1856648958649</v>
       </c>
       <c r="H6" t="n">
-        <v>1.70648606777835</v>
+        <v>1.98207538450378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.496767590514332</v>
+        <v>0.565837507791925</v>
       </c>
       <c r="B7" t="n">
-        <v>1.48747739830484</v>
+        <v>1.66793299340994</v>
       </c>
       <c r="C7" t="n">
-        <v>8.4124752419621</v>
+        <v>9.1983474191034</v>
       </c>
       <c r="D7" t="n">
-        <v>13.3188209926562</v>
+        <v>14.4089301451166</v>
       </c>
       <c r="E7" t="n">
-        <v>5.93171094663827</v>
+        <v>6.39087292465668</v>
       </c>
       <c r="F7" t="n">
-        <v>4.45372557376951</v>
+        <v>4.78961415332429</v>
       </c>
       <c r="G7" t="n">
-        <v>3.81440000820645</v>
+        <v>4.0981581979956</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45606662048841</v>
+        <v>3.71113796744825</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.0960887338673</v>
+        <v>0.214608035270501</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.3679219907168</v>
+        <v>1.57792915626274</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.13642232615983</v>
+        <v>8.47871997388297</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.4791103851913</v>
+        <v>13.1661695248133</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.51691696130544</v>
+        <v>5.89090645597776</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.15941993394664</v>
+        <v>4.46141735900359</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.59014421118667</v>
+        <v>3.8507226643845</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.28054235680443</v>
+        <v>3.51055454646328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.843205236026106</v>
+        <v>0.479532762171373</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.24367643406546</v>
+        <v>2.652586090405</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.79499574837198</v>
+        <v>13.6989766672832</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.7556306805527</v>
+        <v>20.7915792915248</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.21748782314352</v>
+        <v>9.15851094142238</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.741482810668677</v>
+        <v>6.85885690435401</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.553295579647231</v>
+        <v>5.87151750956486</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.457357802915297</v>
+        <v>5.32003340062924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.130634876946849</v>
+        <v>1.18351391347013</v>
       </c>
       <c r="B10" t="n">
-        <v>1.73074412000678</v>
+        <v>5.51205363841844</v>
       </c>
       <c r="C10" t="n">
-        <v>10.3531238653352</v>
+        <v>27.4136356651881</v>
       </c>
       <c r="D10" t="n">
-        <v>16.62192546312</v>
+        <v>40.6378766107887</v>
       </c>
       <c r="E10" t="n">
-        <v>7.45771436882064</v>
+        <v>17.6202625652435</v>
       </c>
       <c r="F10" t="n">
-        <v>5.61022228639665</v>
+        <v>13.0574871039986</v>
       </c>
       <c r="G10" t="n">
-        <v>4.80209297860057</v>
+        <v>11.0990644889242</v>
       </c>
       <c r="H10" t="n">
-        <v>4.34483799720732</v>
+        <v>10.0082610899146</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00232093254100659</v>
+        <v>0.00489957096694337</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00939231020603412</v>
+        <v>0.0163528777221205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0711431871121611</v>
+        <v>0.101090637509765</v>
       </c>
       <c r="D5" t="n">
-        <v>0.124926135265628</v>
+        <v>0.166332728009256</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0580528912036367</v>
+        <v>0.0754826623194223</v>
       </c>
       <c r="F5" t="n">
-        <v>0.044482534768779</v>
+        <v>0.0572308232340806</v>
       </c>
       <c r="G5" t="n">
-        <v>0.038515387686941</v>
+        <v>0.0492844817355991</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0351243727485898</v>
+        <v>0.0448044830981037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00440612913777759</v>
+        <v>0.00612581986514794</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0146122824131755</v>
+        <v>0.0191946876636776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0907662148141911</v>
+        <v>0.110611365725898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.149049767245933</v>
+        <v>0.17652947420207</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0673939812740854</v>
+        <v>0.0789644130010544</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0509661922536552</v>
+        <v>0.0594294296984691</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0438186918698991</v>
+        <v>0.0509681444325198</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0397940363772882</v>
+        <v>0.046220582425356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00618036297730986</v>
+        <v>0.00703967257749194</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0185059380233525</v>
+        <v>0.0207510141924345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104660914934342</v>
+        <v>0.114438073108999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.165701526702264</v>
+        <v>0.179263744479227</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07379733989641</v>
+        <v>0.0795098455906628</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0554094936401232</v>
+        <v>0.0595883357812383</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0474555446883354</v>
+        <v>0.0509858245297912</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0429974631925324</v>
+        <v>0.0461708455536703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-10.1325318167417</v>
+        <v>1.98389298084879</v>
       </c>
       <c r="B8" t="n">
-        <v>-21.8896921108261</v>
+        <v>14.5867910930761</v>
       </c>
       <c r="C8" t="n">
-        <v>-84.4594849400319</v>
+        <v>78.3795118461766</v>
       </c>
       <c r="D8" t="n">
-        <v>-106.115907966191</v>
+        <v>121.71152525589</v>
       </c>
       <c r="E8" t="n">
-        <v>-41.7555654116856</v>
+        <v>54.4570847690788</v>
       </c>
       <c r="F8" t="n">
-        <v>-29.2065067489673</v>
+        <v>41.2425125275858</v>
       </c>
       <c r="G8" t="n">
-        <v>-23.9439726172532</v>
+        <v>35.5970905536633</v>
       </c>
       <c r="H8" t="n">
-        <v>-21.0819318507343</v>
+        <v>32.4524872278752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.82413884336691</v>
+        <v>3.31220119077018</v>
       </c>
       <c r="B9" t="n">
-        <v>-8.59025053302258</v>
+        <v>18.3217905018135</v>
       </c>
       <c r="C9" t="n">
-        <v>-26.2125769672298</v>
+        <v>94.6207859172151</v>
       </c>
       <c r="D9" t="n">
-        <v>-25.9406768286129</v>
+        <v>143.610403959782</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.40936206173756</v>
+        <v>63.2591414786797</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.1215275413335</v>
+        <v>47.3751030128882</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.82169149289637</v>
+        <v>40.5554089750777</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.15903558406444</v>
+        <v>36.7462295687818</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.497676405860465</v>
+        <v>4.50880319641832</v>
       </c>
       <c r="B10" t="n">
-        <v>6.59357235403192</v>
+        <v>20.9991321444296</v>
       </c>
       <c r="C10" t="n">
-        <v>39.442035658093</v>
+        <v>104.43703847151</v>
       </c>
       <c r="D10" t="n">
-        <v>63.3241314747198</v>
+        <v>154.817096675393</v>
       </c>
       <c r="E10" t="n">
-        <v>28.4114669049575</v>
+        <v>67.127471229264</v>
       </c>
       <c r="F10" t="n">
-        <v>21.373122774159</v>
+        <v>49.7447802865952</v>
       </c>
       <c r="G10" t="n">
-        <v>18.2944128708451</v>
+        <v>42.2838268949318</v>
       </c>
       <c r="H10" t="n">
-        <v>16.5524200660127</v>
+        <v>38.1282206142267</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0000396437319116328</v>
+        <v>0.0000836893250724474</v>
       </c>
       <c r="B5" t="n">
-        <v>0.000160429577878822</v>
+        <v>0.00027932268126944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00121519319815751</v>
+        <v>0.0017267240910307</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00213385702846796</v>
+        <v>0.00284112095497168</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000991598512628042</v>
+        <v>0.00128931555575056</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00075980393741153</v>
+        <v>0.000977556811017839</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000657879398455707</v>
+        <v>0.000841825751851656</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000599957642976318</v>
+        <v>0.00076530312061985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0000752570177224207</v>
+        <v>0.000104629464943083</v>
       </c>
       <c r="B6" t="n">
-        <v>0.000249578884809544</v>
+        <v>0.000327846711821599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00155029378923606</v>
+        <v>0.0018892504623534</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00254578125706222</v>
+        <v>0.00301513672276425</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0011510942790221</v>
+        <v>0.00134871812487509</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000870506404542709</v>
+        <v>0.00101505913789602</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000748426559347192</v>
+        <v>0.000870539747904834</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000679685140232357</v>
+        <v>0.00078945103104266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.000105532822989488</v>
+        <v>0.000120205968929641</v>
       </c>
       <c r="B7" t="n">
-        <v>0.000315998249430163</v>
+        <v>0.000354334060258667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00178713804516566</v>
+        <v>0.00195408796489925</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00282943735679577</v>
+        <v>0.00306101908318559</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00126012689496967</v>
+        <v>0.00135767081827503</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000946145122176233</v>
+        <v>0.00101750096480205</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000810327421844041</v>
+        <v>0.000870608735252252</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000734203426037232</v>
+        <v>0.000788390534500836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-18.6121606472389</v>
+        <v>3.64415681433912</v>
       </c>
       <c r="B8" t="n">
-        <v>-40.208555320017</v>
+        <v>26.7940633261538</v>
       </c>
       <c r="C8" t="n">
-        <v>-155.141235213256</v>
+        <v>143.973104878175</v>
       </c>
       <c r="D8" t="n">
-        <v>-194.921305159985</v>
+        <v>223.568452747433</v>
       </c>
       <c r="E8" t="n">
-        <v>-76.6996152012569</v>
+        <v>100.030676284452</v>
       </c>
       <c r="F8" t="n">
-        <v>-53.6486048490147</v>
+        <v>75.7572028928527</v>
       </c>
       <c r="G8" t="n">
-        <v>-43.9820049860657</v>
+        <v>65.387287199473</v>
       </c>
       <c r="H8" t="n">
-        <v>-38.7248033814893</v>
+        <v>59.6110544345579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-12.7546903471406</v>
+        <v>7.25362181291712</v>
       </c>
       <c r="B9" t="n">
-        <v>-18.8123924411327</v>
+        <v>40.1241747047224</v>
       </c>
       <c r="C9" t="n">
-        <v>-57.4047617011017</v>
+        <v>207.216698851823</v>
       </c>
       <c r="D9" t="n">
-        <v>-56.8093085076475</v>
+        <v>314.502501124423</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.4162520844796</v>
+        <v>138.535632972665</v>
       </c>
       <c r="F9" t="n">
-        <v>-11.2159925528661</v>
+        <v>103.750062514643</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.3693903777225</v>
+        <v>88.8151359866502</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.91819370278741</v>
+        <v>80.4731467053778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.76332453721303</v>
+        <v>15.9752064114088</v>
       </c>
       <c r="B10" t="n">
-        <v>23.3617824410462</v>
+        <v>74.4023315841768</v>
       </c>
       <c r="C10" t="n">
-        <v>139.747652198418</v>
+        <v>370.032395271533</v>
       </c>
       <c r="D10" t="n">
-        <v>224.364654446537</v>
+        <v>548.534714792853</v>
       </c>
       <c r="E10" t="n">
-        <v>100.665083057552</v>
+        <v>237.840323040772</v>
       </c>
       <c r="F10" t="n">
-        <v>75.7274232427807</v>
+        <v>176.25145706067</v>
       </c>
       <c r="G10" t="n">
-        <v>64.819201250444</v>
+        <v>149.816444205728</v>
       </c>
       <c r="H10" t="n">
-        <v>58.6471211191813</v>
+        <v>135.092654941307</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.55960790401568</v>
+        <v>5.4034231291509</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3581775926609</v>
+        <v>18.0345418625516</v>
       </c>
       <c r="C5" t="n">
-        <v>78.459266192277</v>
+        <v>111.486391879256</v>
       </c>
       <c r="D5" t="n">
-        <v>137.773036309513</v>
+        <v>183.437716429421</v>
       </c>
       <c r="E5" t="n">
-        <v>64.0228169282964</v>
+        <v>83.2449955676635</v>
       </c>
       <c r="F5" t="n">
-        <v>49.0569396452335</v>
+        <v>63.1162107967794</v>
       </c>
       <c r="G5" t="n">
-        <v>42.4761551694933</v>
+        <v>54.3526995149306</v>
       </c>
       <c r="H5" t="n">
-        <v>38.7364219004364</v>
+        <v>49.4119958452154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.85898900296096</v>
+        <v>6.75542872851135</v>
       </c>
       <c r="B6" t="n">
-        <v>16.1141258763904</v>
+        <v>21.1675085674232</v>
       </c>
       <c r="C6" t="n">
-        <v>100.095123368309</v>
+        <v>121.979949488208</v>
       </c>
       <c r="D6" t="n">
-        <v>164.36903170459</v>
+        <v>194.673089921959</v>
       </c>
       <c r="E6" t="n">
-        <v>74.3207027385742</v>
+        <v>87.0803379564403</v>
       </c>
       <c r="F6" t="n">
-        <v>56.2044733460115</v>
+        <v>65.5375583255725</v>
       </c>
       <c r="G6" t="n">
-        <v>48.3223562592555</v>
+        <v>56.2066261688948</v>
       </c>
       <c r="H6" t="n">
-        <v>43.8840485819715</v>
+        <v>50.9711119880009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.8137542766936</v>
+        <v>7.76112977627844</v>
       </c>
       <c r="B7" t="n">
-        <v>20.4025094988403</v>
+        <v>22.8776711365542</v>
       </c>
       <c r="C7" t="n">
-        <v>115.387034605359</v>
+        <v>126.166199772691</v>
       </c>
       <c r="D7" t="n">
-        <v>182.683361861969</v>
+        <v>197.63549650495</v>
       </c>
       <c r="E7" t="n">
-        <v>81.3604220615932</v>
+        <v>87.6583709438438</v>
       </c>
       <c r="F7" t="n">
-        <v>61.0881069034155</v>
+        <v>65.6952155174544</v>
       </c>
       <c r="G7" t="n">
-        <v>52.3190016120566</v>
+        <v>56.2110803549973</v>
       </c>
       <c r="H7" t="n">
-        <v>47.4040359426619</v>
+        <v>50.9026407518245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.05842960265175</v>
+        <v>1.18620658499273</v>
       </c>
       <c r="B8" t="n">
-        <v>-13.0882548484122</v>
+        <v>8.72171423335405</v>
       </c>
       <c r="C8" t="n">
-        <v>-50.4999000289299</v>
+        <v>46.8645708099999</v>
       </c>
       <c r="D8" t="n">
-        <v>-63.4486789444274</v>
+        <v>72.7735891611829</v>
       </c>
       <c r="E8" t="n">
-        <v>-24.9664307145462</v>
+        <v>32.5609058432935</v>
       </c>
       <c r="F8" t="n">
-        <v>-17.463114676396</v>
+        <v>24.6596668339117</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.3165474466871</v>
+        <v>21.2841638278653</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.6052799355183</v>
+        <v>19.4039468966859</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.13380492267572</v>
+        <v>2.35090439213892</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.09711081679812</v>
+        <v>13.0042757917574</v>
       </c>
       <c r="C9" t="n">
-        <v>-18.6049272892179</v>
+        <v>67.1590910057891</v>
       </c>
       <c r="D9" t="n">
-        <v>-18.4119404525852</v>
+        <v>101.930501796418</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.9687214234194</v>
+        <v>44.8995048850232</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.6351117875728</v>
+        <v>33.6254748236278</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.71252583963986</v>
+        <v>28.7850536827838</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.2421918844167</v>
+        <v>26.0814085595165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.483466489613462</v>
+        <v>4.38006549649752</v>
       </c>
       <c r="B10" t="n">
-        <v>6.40530923804724</v>
+        <v>20.3995539737181</v>
       </c>
       <c r="C10" t="n">
-        <v>38.3158660894477</v>
+        <v>101.455097691739</v>
       </c>
       <c r="D10" t="n">
-        <v>61.5160678533106</v>
+        <v>150.39667820376</v>
       </c>
       <c r="E10" t="n">
-        <v>27.6002478870981</v>
+        <v>65.2108126679812</v>
       </c>
       <c r="F10" t="n">
-        <v>20.762866227975</v>
+        <v>48.324441381085</v>
       </c>
       <c r="G10" t="n">
-        <v>17.7720612551736</v>
+        <v>41.0765170210774</v>
       </c>
       <c r="H10" t="n">
-        <v>16.0798067372442</v>
+        <v>37.0395637777856</v>
       </c>
     </row>
     <row r="11">
@@ -3559,80 +3559,80 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.110486672115784</v>
+        <v>0.233241286150398</v>
       </c>
       <c r="B5" t="n">
-        <v>0.447115579539319</v>
+        <v>0.778469432915892</v>
       </c>
       <c r="C5" t="n">
-        <v>3.38673091477453</v>
+        <v>4.81236223939234</v>
       </c>
       <c r="D5" t="n">
-        <v>5.94703753854012</v>
+        <v>7.91817480990304</v>
       </c>
       <c r="E5" t="n">
-        <v>2.76357483143725</v>
+        <v>3.5933091611941</v>
       </c>
       <c r="F5" t="n">
-        <v>2.11756574008202</v>
+        <v>2.7244407538178</v>
       </c>
       <c r="G5" t="n">
-        <v>1.83350310084143</v>
+        <v>2.34615969129196</v>
       </c>
       <c r="H5" t="n">
-        <v>1.67207576548646</v>
+        <v>2.13289190698771</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.419481065003823</v>
+        <v>0.583202480159251</v>
       </c>
       <c r="B6" t="n">
-        <v>1.39114755767399</v>
+        <v>1.8274108115761</v>
       </c>
       <c r="C6" t="n">
-        <v>8.64130561453022</v>
+        <v>10.5306431212841</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1901322334897</v>
+        <v>16.8063099213201</v>
       </c>
       <c r="E6" t="n">
-        <v>6.416175775992</v>
+        <v>7.51772701782216</v>
       </c>
       <c r="F6" t="n">
-        <v>4.85218474929594</v>
+        <v>5.65791870436595</v>
       </c>
       <c r="G6" t="n">
-        <v>4.17171420943211</v>
+        <v>4.85237060450889</v>
       </c>
       <c r="H6" t="n">
-        <v>3.78855095671695</v>
+        <v>4.40038376874827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.588237779282899</v>
+        <v>0.670025592196697</v>
       </c>
       <c r="B7" t="n">
-        <v>1.76136772651858</v>
+        <v>1.97505074560179</v>
       </c>
       <c r="C7" t="n">
-        <v>9.96147061341229</v>
+        <v>10.8920460235416</v>
       </c>
       <c r="D7" t="n">
-        <v>15.7712254844864</v>
+        <v>17.0620572522258</v>
       </c>
       <c r="E7" t="n">
-        <v>7.02392132905838</v>
+        <v>7.5676291462311</v>
       </c>
       <c r="F7" t="n">
-        <v>5.2737934017337</v>
+        <v>5.67152939719028</v>
       </c>
       <c r="G7" t="n">
-        <v>4.51674834060919</v>
+        <v>4.8527551385609</v>
       </c>
       <c r="H7" t="n">
-        <v>4.09243475763986</v>
+        <v>4.39447258289131</v>
       </c>
     </row>
     <row r="8">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>3.37529486090704</v>
@@ -490,39 +502,45 @@
         <v>102.782275292901</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00557252900119567</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00557252900119567</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.6125</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>3.21691322996097</v>
@@ -537,39 +555,45 @@
         <v>102.835359956094</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00554109255202814</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00554109255202814</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.608333333333333</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>3.06182931348121</v>
@@ -584,39 +608,45 @@
         <v>102.824439497178</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00546928215988976</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00546928215988976</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>3.14777210685262</v>
@@ -631,39 +661,45 @@
         <v>50.7522336502</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00547539484059198</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00547539484059198</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.595833333333333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>3.05893983117677</v>
@@ -678,39 +714,45 @@
         <v>50.7522336502</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00547110186259071</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00547110186259071</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.595833333333333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>2.9426035295009</v>
@@ -725,39 +767,45 @@
         <v>50.7522336502</v>
       </c>
       <c r="F7" t="n">
+        <v>0.0054306632813452</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0054306632813452</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.595833333333333</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>2.90556696569757</v>
@@ -772,39 +820,45 @@
         <v>0.0275566583770021</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00514712556665836</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00514712556665836</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.595833333333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>2.83340236666785</v>
@@ -819,39 +873,45 @@
         <v>0.0274918953725908</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00514079723829588</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00514079723829588</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>2.76557993802178</v>
@@ -866,39 +926,45 @@
         <v>0.0274086286526334</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00513484349648823</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00513484349648823</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5875</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>2.68320645837074</v>
@@ -913,33 +979,39 @@
         <v>0.0273009259259259</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00507656329553624</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00507656329553624</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.579166666666667</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>102.754974366975</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000495965705659429</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000495965705659429</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>102.808059030168</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000464529256491895</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000464529256491895</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0291666666666666</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>102.797138571252</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000392718864353513</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000392718864353513</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0249999999999999</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>50.7249327242741</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000398831545055734</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000398831545055734</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>50.7249327242741</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000394538567054466</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000394538567054466</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>50.7249327242741</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000354099985808961</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000354099985808961</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>0.000255732451076175</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0000705622711221141</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0000705622711221141</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>0.000190969446664892</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0000642339427596398</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0000642339427596398</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0125</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>0.000107702726707522</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0000582802009519894</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000582802009519894</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0083333333333333</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>3763.79081961447</v>
       </c>
       <c r="E2" t="n">
+        <v>0.0976971381594957</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0976971381594957</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0575539568345324</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>3765.73524682317</v>
       </c>
       <c r="E3" t="n">
+        <v>0.0915046714576276</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0915046714576276</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0503597122302156</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>3765.33524357985</v>
       </c>
       <c r="E4" t="n">
+        <v>0.0773591978452874</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0773591978452874</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0431654676258991</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>1857.99312674974</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0785632960405361</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0785632960405361</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0287769784172661</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>1857.99312674974</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0777176495369177</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0777176495369177</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0287769784172661</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>1857.99312674974</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0697519099427591</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0697519099427591</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0287769784172661</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>0.00936717134686344</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0138996141709015</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0138996141709015</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0287769784172661</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>0.0069949805798909</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0126530369110378</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0126530369110378</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0215827338129496</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>0.00394502102235453</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0114802470803889</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0114802470803889</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.014388489208633</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.29223745583076</v>
+        <v>1.93947638581364</v>
       </c>
       <c r="B2" t="n">
-        <v>13.3624118494043</v>
+        <v>7.87187515698086</v>
       </c>
       <c r="C2" t="n">
-        <v>79.0776831111979</v>
+        <v>46.5851267099205</v>
       </c>
       <c r="D2" t="n">
-        <v>127.94759686429</v>
+        <v>75.3746793993856</v>
       </c>
       <c r="E2" t="n">
-        <v>57.8317088520929</v>
+        <v>34.0689987203795</v>
       </c>
       <c r="F2" t="n">
-        <v>43.8340324676243</v>
+        <v>25.8228855015845</v>
       </c>
       <c r="G2" t="n">
-        <v>37.7720330939266</v>
+        <v>22.2517261323594</v>
       </c>
       <c r="H2" t="n">
-        <v>34.3657972145316</v>
+        <v>20.2450926069138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.86433033211381</v>
+        <v>2.67709038036812</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6506185078954</v>
+        <v>9.71404032803436</v>
       </c>
       <c r="C3" t="n">
-        <v>98.3741597209713</v>
+        <v>54.1403438263962</v>
       </c>
       <c r="D3" t="n">
-        <v>154.747943397608</v>
+        <v>85.1657273184124</v>
       </c>
       <c r="E3" t="n">
-        <v>68.9227655764866</v>
+        <v>37.9317316291304</v>
       </c>
       <c r="F3" t="n">
-        <v>51.8005430281481</v>
+        <v>28.5084946889779</v>
       </c>
       <c r="G3" t="n">
-        <v>44.4026578121149</v>
+        <v>24.4370591583436</v>
       </c>
       <c r="H3" t="n">
-        <v>40.2570472897905</v>
+        <v>22.1555171387158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.63008656926218</v>
+        <v>3.69950561967764</v>
       </c>
       <c r="B4" t="n">
-        <v>22.0307947859906</v>
+        <v>12.2929087373601</v>
       </c>
       <c r="C4" t="n">
-        <v>117.804011766538</v>
+        <v>65.7331693935</v>
       </c>
       <c r="D4" t="n">
-        <v>181.688870244177</v>
+        <v>101.380123695129</v>
       </c>
       <c r="E4" t="n">
-        <v>80.086084594809</v>
+        <v>44.6870364242387</v>
       </c>
       <c r="F4" t="n">
-        <v>59.8374009372935</v>
+        <v>33.3885234712789</v>
       </c>
       <c r="G4" t="n">
-        <v>51.108365286671</v>
+        <v>28.5178304408803</v>
       </c>
       <c r="H4" t="n">
-        <v>46.2292497836694</v>
+        <v>25.7953448392452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.4034231291509</v>
+        <v>1.97922183263164</v>
       </c>
       <c r="B5" t="n">
-        <v>18.0345418625516</v>
+        <v>6.60587892947046</v>
       </c>
       <c r="C5" t="n">
-        <v>111.486391879256</v>
+        <v>40.8363912236177</v>
       </c>
       <c r="D5" t="n">
-        <v>183.437716429421</v>
+        <v>67.1914681873625</v>
       </c>
       <c r="E5" t="n">
-        <v>83.2449955676635</v>
+        <v>30.4918398479621</v>
       </c>
       <c r="F5" t="n">
-        <v>63.1162107967794</v>
+        <v>23.1188599182675</v>
       </c>
       <c r="G5" t="n">
-        <v>54.3526995149306</v>
+        <v>19.9088701682562</v>
       </c>
       <c r="H5" t="n">
-        <v>49.4119958452154</v>
+        <v>18.0991380155198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.75542872851135</v>
+        <v>2.5013729555396</v>
       </c>
       <c r="B6" t="n">
-        <v>21.1675085674232</v>
+        <v>7.83781986230397</v>
       </c>
       <c r="C6" t="n">
-        <v>121.979949488208</v>
+        <v>45.1662446648486</v>
       </c>
       <c r="D6" t="n">
-        <v>194.673089921959</v>
+        <v>72.0827680776112</v>
       </c>
       <c r="E6" t="n">
-        <v>87.0803379564403</v>
+        <v>32.2437569956404</v>
       </c>
       <c r="F6" t="n">
-        <v>65.5375583255725</v>
+        <v>24.266983274622</v>
       </c>
       <c r="G6" t="n">
-        <v>56.2066261688948</v>
+        <v>20.8119632774187</v>
       </c>
       <c r="H6" t="n">
-        <v>50.9711119880009</v>
+        <v>18.873378162138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.76112977627844</v>
+        <v>3.20194621550647</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8776711365542</v>
+        <v>9.43845479033043</v>
       </c>
       <c r="C7" t="n">
-        <v>126.166199772691</v>
+        <v>52.051363336526</v>
       </c>
       <c r="D7" t="n">
-        <v>197.63549650495</v>
+        <v>81.5368700595561</v>
       </c>
       <c r="E7" t="n">
-        <v>87.6583709438438</v>
+        <v>36.1645014568603</v>
       </c>
       <c r="F7" t="n">
-        <v>65.6952155174544</v>
+        <v>27.1033409782592</v>
       </c>
       <c r="G7" t="n">
-        <v>56.2110803549973</v>
+        <v>23.1905484382351</v>
       </c>
       <c r="H7" t="n">
-        <v>50.9026407518245</v>
+        <v>21.0004886676105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.18620658499273</v>
+        <v>2.45585531188457</v>
       </c>
       <c r="B8" t="n">
-        <v>8.72171423335405</v>
+        <v>18.0569459820131</v>
       </c>
       <c r="C8" t="n">
-        <v>46.8645708099999</v>
+        <v>97.025768208524</v>
       </c>
       <c r="D8" t="n">
-        <v>72.7735891611829</v>
+        <v>150.666340726386</v>
       </c>
       <c r="E8" t="n">
-        <v>32.5609058432935</v>
+        <v>67.4122657779008</v>
       </c>
       <c r="F8" t="n">
-        <v>24.6596668339117</v>
+        <v>51.0539854942192</v>
       </c>
       <c r="G8" t="n">
-        <v>21.2841638278653</v>
+        <v>44.0655341632629</v>
       </c>
       <c r="H8" t="n">
-        <v>19.4039468966859</v>
+        <v>40.1728389140957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.35090439213892</v>
+        <v>4.01002099906675</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0042757917574</v>
+        <v>22.1818544288639</v>
       </c>
       <c r="C9" t="n">
-        <v>67.1590910057891</v>
+        <v>114.555643399187</v>
       </c>
       <c r="D9" t="n">
-        <v>101.930501796418</v>
+        <v>173.866471990875</v>
       </c>
       <c r="E9" t="n">
-        <v>44.8995048850232</v>
+        <v>76.5866778924303</v>
       </c>
       <c r="F9" t="n">
-        <v>33.6254748236278</v>
+        <v>57.3561649709019</v>
       </c>
       <c r="G9" t="n">
-        <v>28.7850536827838</v>
+        <v>49.0996869601348</v>
       </c>
       <c r="H9" t="n">
-        <v>26.0814085595165</v>
+        <v>44.4879835856465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.38006549649752</v>
+        <v>5.4896488453736</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3995539737181</v>
+        <v>25.5672861530283</v>
       </c>
       <c r="C10" t="n">
-        <v>101.455097691739</v>
+        <v>127.156285755563</v>
       </c>
       <c r="D10" t="n">
-        <v>150.39667820376</v>
+        <v>188.496028543294</v>
       </c>
       <c r="E10" t="n">
-        <v>65.2108126679812</v>
+        <v>81.7303902772495</v>
       </c>
       <c r="F10" t="n">
-        <v>48.324441381085</v>
+        <v>60.5662664275521</v>
       </c>
       <c r="G10" t="n">
-        <v>41.0765170210774</v>
+        <v>51.4822562395566</v>
       </c>
       <c r="H10" t="n">
-        <v>37.0395637777856</v>
+        <v>46.4226388140672</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.284221938632872</v>
+        <v>1.93947638581364</v>
       </c>
       <c r="B2" t="n">
-        <v>1.15358951217879</v>
+        <v>7.87187515698086</v>
       </c>
       <c r="C2" t="n">
-        <v>6.82685034053507</v>
+        <v>46.5851267099205</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0458357005142</v>
+        <v>75.3746793993856</v>
       </c>
       <c r="E2" t="n">
-        <v>4.9926655124109</v>
+        <v>34.0689987203795</v>
       </c>
       <c r="F2" t="n">
-        <v>3.78423301878771</v>
+        <v>25.8228855015845</v>
       </c>
       <c r="G2" t="n">
-        <v>3.26089494336057</v>
+        <v>22.2517261323594</v>
       </c>
       <c r="H2" t="n">
-        <v>2.96683141420416</v>
+        <v>20.2450926069138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.367449413576941</v>
+        <v>2.67709038036812</v>
       </c>
       <c r="B3" t="n">
-        <v>1.33332010311439</v>
+        <v>9.71404032803436</v>
       </c>
       <c r="C3" t="n">
-        <v>7.43114156165608</v>
+        <v>54.1403438263962</v>
       </c>
       <c r="D3" t="n">
-        <v>11.6895928465819</v>
+        <v>85.1657273184124</v>
       </c>
       <c r="E3" t="n">
-        <v>5.20639596081372</v>
+        <v>37.9317316291304</v>
       </c>
       <c r="F3" t="n">
-        <v>3.91299066039967</v>
+        <v>28.5084946889779</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35415760451226</v>
+        <v>24.4370591583436</v>
       </c>
       <c r="H3" t="n">
-        <v>3.04099997512805</v>
+        <v>22.1555171387158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.858572361487186</v>
+        <v>3.69950561967764</v>
       </c>
       <c r="B4" t="n">
-        <v>2.85290867732251</v>
+        <v>12.2929087373601</v>
       </c>
       <c r="C4" t="n">
-        <v>15.2551957683287</v>
+        <v>65.7331693935</v>
       </c>
       <c r="D4" t="n">
-        <v>23.5280551395336</v>
+        <v>101.380123695129</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3708598755867</v>
+        <v>44.6870364242387</v>
       </c>
       <c r="F4" t="n">
-        <v>7.74872817893007</v>
+        <v>33.3885234712789</v>
       </c>
       <c r="G4" t="n">
-        <v>6.61834946158327</v>
+        <v>28.5178304408803</v>
       </c>
       <c r="H4" t="n">
-        <v>5.98652155471975</v>
+        <v>25.7953448392452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.233241286150398</v>
+        <v>1.97922183263164</v>
       </c>
       <c r="B5" t="n">
-        <v>0.778469432915892</v>
+        <v>6.60587892947046</v>
       </c>
       <c r="C5" t="n">
-        <v>4.81236223939234</v>
+        <v>40.8363912236177</v>
       </c>
       <c r="D5" t="n">
-        <v>7.91817480990304</v>
+        <v>67.1914681873625</v>
       </c>
       <c r="E5" t="n">
-        <v>3.5933091611941</v>
+        <v>30.4918398479621</v>
       </c>
       <c r="F5" t="n">
-        <v>2.7244407538178</v>
+        <v>23.1188599182675</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34615969129196</v>
+        <v>19.9088701682562</v>
       </c>
       <c r="H5" t="n">
-        <v>2.13289190698771</v>
+        <v>18.0991380155198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.583202480159251</v>
+        <v>2.5013729555396</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8274108115761</v>
+        <v>7.83781986230397</v>
       </c>
       <c r="C6" t="n">
-        <v>10.5306431212841</v>
+        <v>45.1662446648486</v>
       </c>
       <c r="D6" t="n">
-        <v>16.8063099213201</v>
+        <v>72.0827680776112</v>
       </c>
       <c r="E6" t="n">
-        <v>7.51772701782216</v>
+        <v>32.2437569956404</v>
       </c>
       <c r="F6" t="n">
-        <v>5.65791870436595</v>
+        <v>24.266983274622</v>
       </c>
       <c r="G6" t="n">
-        <v>4.85237060450889</v>
+        <v>20.8119632774187</v>
       </c>
       <c r="H6" t="n">
-        <v>4.40038376874827</v>
+        <v>18.873378162138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.670025592196697</v>
+        <v>3.20194621550647</v>
       </c>
       <c r="B7" t="n">
-        <v>1.97505074560179</v>
+        <v>9.43845479033043</v>
       </c>
       <c r="C7" t="n">
-        <v>10.8920460235416</v>
+        <v>52.051363336526</v>
       </c>
       <c r="D7" t="n">
-        <v>17.0620572522258</v>
+        <v>81.5368700595561</v>
       </c>
       <c r="E7" t="n">
-        <v>7.5676291462311</v>
+        <v>36.1645014568603</v>
       </c>
       <c r="F7" t="n">
-        <v>5.67152939719028</v>
+        <v>27.1033409782592</v>
       </c>
       <c r="G7" t="n">
-        <v>4.8527551385609</v>
+        <v>23.1905484382351</v>
       </c>
       <c r="H7" t="n">
-        <v>4.39447258289131</v>
+        <v>21.0004886676105</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>2.45585531188457</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.0569459820131</v>
+      </c>
+      <c r="C8" t="n">
+        <v>97.025768208524</v>
+      </c>
+      <c r="D8" t="n">
+        <v>150.666340726386</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67.4122657779008</v>
+      </c>
+      <c r="F8" t="n">
+        <v>51.0539854942192</v>
+      </c>
+      <c r="G8" t="n">
+        <v>44.0655341632629</v>
+      </c>
+      <c r="H8" t="n">
+        <v>40.1728389140957</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>4.01002099906675</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.1818544288639</v>
+      </c>
+      <c r="C9" t="n">
+        <v>114.555643399187</v>
+      </c>
+      <c r="D9" t="n">
+        <v>173.866471990875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>76.5866778924303</v>
+      </c>
+      <c r="F9" t="n">
+        <v>57.3561649709019</v>
+      </c>
+      <c r="G9" t="n">
+        <v>49.0996869601348</v>
+      </c>
+      <c r="H9" t="n">
+        <v>44.4879835856465</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>5.4896488453736</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25.5672861530283</v>
+      </c>
+      <c r="C10" t="n">
+        <v>127.156285755563</v>
+      </c>
+      <c r="D10" t="n">
+        <v>188.496028543294</v>
+      </c>
+      <c r="E10" t="n">
+        <v>81.7303902772495</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60.5662664275521</v>
+      </c>
+      <c r="G10" t="n">
+        <v>51.4822562395566</v>
+      </c>
+      <c r="H10" t="n">
+        <v>46.4226388140672</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.29223745583076</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13.3624118494043</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79.0776831111979</v>
+      </c>
+      <c r="D2" t="n">
+        <v>127.94759686429</v>
+      </c>
+      <c r="E2" t="n">
+        <v>57.8317088520929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43.8340324676243</v>
+      </c>
+      <c r="G2" t="n">
+        <v>37.7720330939266</v>
+      </c>
+      <c r="H2" t="n">
+        <v>34.3657972145316</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.86433033211381</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.6506185078954</v>
+      </c>
+      <c r="C3" t="n">
+        <v>98.3741597209713</v>
+      </c>
+      <c r="D3" t="n">
+        <v>154.747943397608</v>
+      </c>
+      <c r="E3" t="n">
+        <v>68.9227655764866</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51.8005430281481</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44.4026578121149</v>
+      </c>
+      <c r="H3" t="n">
+        <v>40.2570472897905</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.63008656926218</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.0307947859906</v>
+      </c>
+      <c r="C4" t="n">
+        <v>117.804011766538</v>
+      </c>
+      <c r="D4" t="n">
+        <v>181.688870244177</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80.086084594809</v>
+      </c>
+      <c r="F4" t="n">
+        <v>59.8374009372935</v>
+      </c>
+      <c r="G4" t="n">
+        <v>51.108365286671</v>
+      </c>
+      <c r="H4" t="n">
+        <v>46.2292497836694</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.4034231291509</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18.0345418625516</v>
+      </c>
+      <c r="C5" t="n">
+        <v>111.486391879256</v>
+      </c>
+      <c r="D5" t="n">
+        <v>183.437716429421</v>
+      </c>
+      <c r="E5" t="n">
+        <v>83.2449955676635</v>
+      </c>
+      <c r="F5" t="n">
+        <v>63.1162107967794</v>
+      </c>
+      <c r="G5" t="n">
+        <v>54.3526995149306</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49.4119958452154</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.75542872851135</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21.1675085674232</v>
+      </c>
+      <c r="C6" t="n">
+        <v>121.979949488208</v>
+      </c>
+      <c r="D6" t="n">
+        <v>194.673089921959</v>
+      </c>
+      <c r="E6" t="n">
+        <v>87.0803379564403</v>
+      </c>
+      <c r="F6" t="n">
+        <v>65.5375583255725</v>
+      </c>
+      <c r="G6" t="n">
+        <v>56.2066261688948</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50.9711119880009</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.76112977627844</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.8776711365542</v>
+      </c>
+      <c r="C7" t="n">
+        <v>126.166199772691</v>
+      </c>
+      <c r="D7" t="n">
+        <v>197.63549650495</v>
+      </c>
+      <c r="E7" t="n">
+        <v>87.6583709438438</v>
+      </c>
+      <c r="F7" t="n">
+        <v>65.6952155174544</v>
+      </c>
+      <c r="G7" t="n">
+        <v>56.2110803549973</v>
+      </c>
+      <c r="H7" t="n">
+        <v>50.9026407518245</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.18620658499273</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.72171423335405</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46.8645708099999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>72.7735891611829</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32.5609058432935</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.6596668339117</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.2841638278653</v>
+      </c>
+      <c r="H8" t="n">
+        <v>19.4039468966859</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.35090439213892</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.0042757917574</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67.1590910057891</v>
+      </c>
+      <c r="D9" t="n">
+        <v>101.930501796418</v>
+      </c>
+      <c r="E9" t="n">
+        <v>44.8995048850232</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33.6254748236278</v>
+      </c>
+      <c r="G9" t="n">
+        <v>28.7850536827838</v>
+      </c>
+      <c r="H9" t="n">
+        <v>26.0814085595165</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4.38006549649752</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20.3995539737181</v>
+      </c>
+      <c r="C10" t="n">
+        <v>101.455097691739</v>
+      </c>
+      <c r="D10" t="n">
+        <v>150.39667820376</v>
+      </c>
+      <c r="E10" t="n">
+        <v>65.2108126679812</v>
+      </c>
+      <c r="F10" t="n">
+        <v>48.324441381085</v>
+      </c>
+      <c r="G10" t="n">
+        <v>41.0765170210774</v>
+      </c>
+      <c r="H10" t="n">
+        <v>37.0395637777856</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.284221938632872</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.15358951217879</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.82685034053507</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.0458357005142</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.9926655124109</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.78423301878771</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.26089494336057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.96683141420416</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.367449413576941</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.33332010311439</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.43114156165608</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.6895928465819</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.20639596081372</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.91299066039967</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.35415760451226</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.04099997512805</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.858572361487186</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.85290867732251</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.2551957683287</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.5280551395336</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.3708598755867</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.74872817893007</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.61834946158327</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.98652155471975</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.233241286150398</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.778469432915892</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.81236223939234</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.91817480990304</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.5933091611941</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.7244407538178</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.34615969129196</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.13289190698771</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.583202480159251</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.8274108115761</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.5306431212841</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.8063099213201</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.51772701782216</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.65791870436595</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.85237060450889</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.40038376874827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.670025592196697</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.97505074560179</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.8920460235416</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.0620572522258</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.5676291462311</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.67152939719028</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.8527551385609</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.39447258289131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_5.xlsx
@@ -504,7 +504,7 @@
         <v>102.782275292901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00557252900119567</v>
+        <v>1.70997843656398</v>
       </c>
       <c r="G2" t="n">
         <v>0.00557252900119567</v>
@@ -557,7 +557,7 @@
         <v>102.835359956094</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00554109255202814</v>
+        <v>1.69827145923582</v>
       </c>
       <c r="G3" t="n">
         <v>0.00554109255202814</v>
@@ -610,7 +610,7 @@
         <v>102.824439497178</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00546928215988976</v>
+        <v>1.61971458084352</v>
       </c>
       <c r="G4" t="n">
         <v>0.00546928215988976</v>
@@ -663,7 +663,7 @@
         <v>50.7522336502</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00547539484059198</v>
+        <v>1.64949579388123</v>
       </c>
       <c r="G5" t="n">
         <v>0.00547539484059198</v>
@@ -716,7 +716,7 @@
         <v>50.7522336502</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00547110186259071</v>
+        <v>1.6167308984372</v>
       </c>
       <c r="G6" t="n">
         <v>0.00547110186259071</v>
@@ -769,7 +769,7 @@
         <v>50.7522336502</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0054306632813452</v>
+        <v>1.57247034164169</v>
       </c>
       <c r="G7" t="n">
         <v>0.0054306632813452</v>
@@ -822,7 +822,7 @@
         <v>0.0275566583770021</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00514712556665836</v>
+        <v>1.58582343217209</v>
       </c>
       <c r="G8" t="n">
         <v>0.00514712556665836</v>
@@ -875,7 +875,7 @@
         <v>0.0274918953725908</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00514079723829588</v>
+        <v>1.57300130046494</v>
       </c>
       <c r="G9" t="n">
         <v>0.00514079723829588</v>
@@ -928,7 +928,7 @@
         <v>0.0274086286526334</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00513484349648823</v>
+        <v>1.54540013263254</v>
       </c>
       <c r="G10" t="n">
         <v>0.00513484349648823</v>
@@ -981,7 +981,7 @@
         <v>0.0273009259259259</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00507656329553624</v>
+        <v>1.44698223638303</v>
       </c>
       <c r="G11" t="n">
         <v>0.00507656329553624</v>
@@ -1695,7 +1695,7 @@
         <v>102.754974366975</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000495965705659429</v>
+        <v>0.262996200180947</v>
       </c>
       <c r="F2" t="n">
         <v>0.000495965705659429</v>
@@ -1745,7 +1745,7 @@
         <v>102.808059030168</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000464529256491895</v>
+        <v>0.251289222852783</v>
       </c>
       <c r="F3" t="n">
         <v>0.000464529256491895</v>
@@ -1795,7 +1795,7 @@
         <v>102.797138571252</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000392718864353513</v>
+        <v>0.172732344460487</v>
       </c>
       <c r="F4" t="n">
         <v>0.000392718864353513</v>
@@ -1845,7 +1845,7 @@
         <v>50.7249327242741</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000398831545055734</v>
+        <v>0.202513557498191</v>
       </c>
       <c r="F5" t="n">
         <v>0.000398831545055734</v>
@@ -1895,7 +1895,7 @@
         <v>50.7249327242741</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000394538567054466</v>
+        <v>0.169748662054166</v>
       </c>
       <c r="F6" t="n">
         <v>0.000394538567054466</v>
@@ -1945,7 +1945,7 @@
         <v>50.7249327242741</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000354099985808961</v>
+        <v>0.125488105258659</v>
       </c>
       <c r="F7" t="n">
         <v>0.000354099985808961</v>
@@ -1995,7 +1995,7 @@
         <v>0.000255732451076175</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000705622711221141</v>
+        <v>0.138841195789057</v>
       </c>
       <c r="F8" t="n">
         <v>0.0000705622711221141</v>
@@ -2045,7 +2045,7 @@
         <v>0.000190969446664892</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0000642339427596398</v>
+        <v>0.126019064081906</v>
       </c>
       <c r="F9" t="n">
         <v>0.0000642339427596398</v>
@@ -2095,7 +2095,7 @@
         <v>0.000107702726707522</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000582802009519894</v>
+        <v>0.0984178962495028</v>
       </c>
       <c r="F10" t="n">
         <v>0.0000582802009519894</v>
@@ -2259,7 +2259,7 @@
         <v>3763.79081961447</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0976971381594957</v>
+        <v>0.181754961165487</v>
       </c>
       <c r="F2" t="n">
         <v>0.0976971381594957</v>
@@ -2309,7 +2309,7 @@
         <v>3765.73524682317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0915046714576276</v>
+        <v>0.17366434537643</v>
       </c>
       <c r="F3" t="n">
         <v>0.0915046714576276</v>
@@ -2359,7 +2359,7 @@
         <v>3765.33524357985</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0773591978452874</v>
+        <v>0.119374198326207</v>
       </c>
       <c r="F4" t="n">
         <v>0.0773591978452874</v>
@@ -2409,7 +2409,7 @@
         <v>1857.99312674974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0785632960405361</v>
+        <v>0.139955800704511</v>
       </c>
       <c r="F5" t="n">
         <v>0.0785632960405361</v>
@@ -2459,7 +2459,7 @@
         <v>1857.99312674974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0777176495369177</v>
+        <v>0.117312194846621</v>
       </c>
       <c r="F6" t="n">
         <v>0.0777176495369177</v>
@@ -2509,7 +2509,7 @@
         <v>1857.99312674974</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0697519099427591</v>
+        <v>0.086724012294952</v>
       </c>
       <c r="F7" t="n">
         <v>0.0697519099427591</v>
@@ -2559,7 +2559,7 @@
         <v>0.00936717134686344</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0138996141709015</v>
+        <v>0.095952246197654</v>
       </c>
       <c r="F8" t="n">
         <v>0.0138996141709015</v>
@@ -2609,7 +2609,7 @@
         <v>0.0069949805798909</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0126530369110378</v>
+        <v>0.0870909544797945</v>
       </c>
       <c r="F9" t="n">
         <v>0.0126530369110378</v>
@@ -2659,7 +2659,7 @@
         <v>0.00394502102235453</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0114802470803889</v>
+        <v>0.0680159671451905</v>
       </c>
       <c r="F10" t="n">
         <v>0.0114802470803889</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.93947638581364</v>
+        <v>1.04250960307704</v>
       </c>
       <c r="B2" t="n">
-        <v>7.87187515698086</v>
+        <v>4.2312994916581</v>
       </c>
       <c r="C2" t="n">
-        <v>46.5851267099205</v>
+        <v>25.0404915011528</v>
       </c>
       <c r="D2" t="n">
-        <v>75.3746793993856</v>
+        <v>40.5154853534078</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0689987203795</v>
+        <v>18.3128078243216</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8228855015845</v>
+        <v>13.8803474543296</v>
       </c>
       <c r="G2" t="n">
-        <v>22.2517261323594</v>
+        <v>11.9607737158879</v>
       </c>
       <c r="H2" t="n">
-        <v>20.2450926069138</v>
+        <v>10.8821657289926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.67709038036812</v>
+        <v>1.41057322495863</v>
       </c>
       <c r="B3" t="n">
-        <v>9.71404032803436</v>
+        <v>5.11837975041001</v>
       </c>
       <c r="C3" t="n">
-        <v>54.1403438263962</v>
+        <v>28.5268364309267</v>
       </c>
       <c r="D3" t="n">
-        <v>85.1657273184124</v>
+        <v>44.8742767597414</v>
       </c>
       <c r="E3" t="n">
-        <v>37.9317316291304</v>
+        <v>19.986432062488</v>
       </c>
       <c r="F3" t="n">
-        <v>28.5084946889779</v>
+        <v>15.0212781708991</v>
       </c>
       <c r="G3" t="n">
-        <v>24.4370591583436</v>
+        <v>12.8760170363578</v>
       </c>
       <c r="H3" t="n">
-        <v>22.1555171387158</v>
+        <v>11.6738603560658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.69950561967764</v>
+        <v>2.39742583552551</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2929087373601</v>
+        <v>7.96629064271361</v>
       </c>
       <c r="C4" t="n">
-        <v>65.7331693935</v>
+        <v>42.5976913554961</v>
       </c>
       <c r="D4" t="n">
-        <v>101.380123695129</v>
+        <v>65.6983264095306</v>
       </c>
       <c r="E4" t="n">
-        <v>44.6870364242387</v>
+        <v>28.9589655079033</v>
       </c>
       <c r="F4" t="n">
-        <v>33.3885234712789</v>
+        <v>21.6370826291835</v>
       </c>
       <c r="G4" t="n">
-        <v>28.5178304408803</v>
+        <v>18.4806810695046</v>
       </c>
       <c r="H4" t="n">
-        <v>25.7953448392452</v>
+        <v>16.716402814732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.97922183263164</v>
+        <v>1.11102355160846</v>
       </c>
       <c r="B5" t="n">
-        <v>6.60587892947046</v>
+        <v>3.70816800255141</v>
       </c>
       <c r="C5" t="n">
-        <v>40.8363912236177</v>
+        <v>22.9232477452064</v>
       </c>
       <c r="D5" t="n">
-        <v>67.1914681873625</v>
+        <v>37.7175020973025</v>
       </c>
       <c r="E5" t="n">
-        <v>30.4918398479621</v>
+        <v>17.1163998114932</v>
       </c>
       <c r="F5" t="n">
-        <v>23.1188599182675</v>
+        <v>12.9776245552929</v>
       </c>
       <c r="G5" t="n">
-        <v>19.9088701682562</v>
+        <v>11.1757172835131</v>
       </c>
       <c r="H5" t="n">
-        <v>18.0991380155198</v>
+        <v>10.1598356826519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.5013729555396</v>
+        <v>1.65712377109574</v>
       </c>
       <c r="B6" t="n">
-        <v>7.83781986230397</v>
+        <v>5.19244344535916</v>
       </c>
       <c r="C6" t="n">
-        <v>45.1662446648486</v>
+        <v>29.9219904490815</v>
       </c>
       <c r="D6" t="n">
-        <v>72.0827680776112</v>
+        <v>47.7538018484024</v>
       </c>
       <c r="E6" t="n">
-        <v>32.2437569956404</v>
+        <v>21.3610273784158</v>
       </c>
       <c r="F6" t="n">
-        <v>24.266983274622</v>
+        <v>16.0765289910492</v>
       </c>
       <c r="G6" t="n">
-        <v>20.8119632774187</v>
+        <v>13.787627708137</v>
       </c>
       <c r="H6" t="n">
-        <v>18.873378162138</v>
+        <v>12.5033428238258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.20194621550647</v>
+        <v>2.57531747154376</v>
       </c>
       <c r="B7" t="n">
-        <v>9.43845479033043</v>
+        <v>7.59132599048641</v>
       </c>
       <c r="C7" t="n">
-        <v>52.051363336526</v>
+        <v>41.8647836022519</v>
       </c>
       <c r="D7" t="n">
-        <v>81.5368700595561</v>
+        <v>65.5799041915368</v>
       </c>
       <c r="E7" t="n">
-        <v>36.1645014568603</v>
+        <v>29.0870196383952</v>
       </c>
       <c r="F7" t="n">
-        <v>27.1033409782592</v>
+        <v>21.7991505355371</v>
       </c>
       <c r="G7" t="n">
-        <v>23.1905484382351</v>
+        <v>18.6521011122674</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0004886676105</v>
+        <v>16.8906414213768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.45585531188457</v>
+        <v>0.355754478372901</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0569459820131</v>
+        <v>2.61572388558558</v>
       </c>
       <c r="C8" t="n">
-        <v>97.025768208524</v>
+        <v>14.0551242537434</v>
       </c>
       <c r="D8" t="n">
-        <v>150.666340726386</v>
+        <v>21.8254818164908</v>
       </c>
       <c r="E8" t="n">
-        <v>67.4122657779008</v>
+        <v>9.76532099904086</v>
       </c>
       <c r="F8" t="n">
-        <v>51.0539854942192</v>
+        <v>7.3956653270489</v>
       </c>
       <c r="G8" t="n">
-        <v>44.0655341632629</v>
+        <v>6.38332032209382</v>
       </c>
       <c r="H8" t="n">
-        <v>40.1728389140957</v>
+        <v>5.81942563288696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.01002099906675</v>
+        <v>0.58259717117924</v>
       </c>
       <c r="B9" t="n">
-        <v>22.1818544288639</v>
+        <v>3.22269774766103</v>
       </c>
       <c r="C9" t="n">
-        <v>114.555643399187</v>
+        <v>16.6432529411982</v>
       </c>
       <c r="D9" t="n">
-        <v>173.866471990875</v>
+        <v>25.260245462149</v>
       </c>
       <c r="E9" t="n">
-        <v>76.5866778924303</v>
+        <v>11.1269197594052</v>
       </c>
       <c r="F9" t="n">
-        <v>57.3561649709019</v>
+        <v>8.33300859758941</v>
       </c>
       <c r="G9" t="n">
-        <v>49.0996869601348</v>
+        <v>7.13346357423517</v>
       </c>
       <c r="H9" t="n">
-        <v>44.4879835856465</v>
+        <v>6.46345078853655</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.4896488453736</v>
+        <v>0.926584267998855</v>
       </c>
       <c r="B10" t="n">
-        <v>25.5672861530283</v>
+        <v>4.31543907308132</v>
       </c>
       <c r="C10" t="n">
-        <v>127.156285755563</v>
+        <v>21.4623953693441</v>
       </c>
       <c r="D10" t="n">
-        <v>188.496028543294</v>
+        <v>31.8157790321456</v>
       </c>
       <c r="E10" t="n">
-        <v>81.7303902772495</v>
+        <v>13.7950706832783</v>
       </c>
       <c r="F10" t="n">
-        <v>60.5662664275521</v>
+        <v>10.2228304986196</v>
       </c>
       <c r="G10" t="n">
-        <v>51.4822562395566</v>
+        <v>8.68956285844412</v>
       </c>
       <c r="H10" t="n">
-        <v>46.4226388140672</v>
+        <v>7.83556253153754</v>
       </c>
     </row>
     <row r="11">
